--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.1754355171277</v>
+        <v>414.8725866258198</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.0173853946212</v>
+        <v>567.6469759082166</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.2009893148746</v>
+        <v>513.4715452250701</v>
       </c>
       <c r="AD2" t="n">
-        <v>366175.4355171277</v>
+        <v>414872.5866258198</v>
       </c>
       <c r="AE2" t="n">
-        <v>501017.3853946212</v>
+        <v>567646.9759082167</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.800803208503681e-06</v>
+        <v>3.331957411996109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>453200.9893148746</v>
+        <v>513471.5452250701</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.8157037116763</v>
+        <v>273.3172542066932</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.0216933896594</v>
+        <v>373.9647251118499</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.0975177399495</v>
+        <v>338.2740566099624</v>
       </c>
       <c r="AD3" t="n">
-        <v>236815.7037116764</v>
+        <v>273317.2542066932</v>
       </c>
       <c r="AE3" t="n">
-        <v>324021.6933896594</v>
+        <v>373964.72511185</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.488426539861804e-06</v>
+        <v>4.604240604718703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.105324074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>293097.5177399495</v>
+        <v>338274.0566099624</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.2815155721445</v>
+        <v>238.8683174131785</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.770493636321</v>
+        <v>326.8301700109787</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.3559061735793</v>
+        <v>295.6379572942527</v>
       </c>
       <c r="AD4" t="n">
-        <v>202281.5155721445</v>
+        <v>238868.3174131785</v>
       </c>
       <c r="AE4" t="n">
-        <v>276770.493636321</v>
+        <v>326830.1700109787</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.748655181645925e-06</v>
+        <v>5.085731723632662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.529513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>250355.9061735793</v>
+        <v>295637.9572942526</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.7281698518342</v>
+        <v>216.1194605877412</v>
       </c>
       <c r="AB5" t="n">
-        <v>262.3309404410456</v>
+        <v>295.704180493699</v>
       </c>
       <c r="AC5" t="n">
-        <v>237.2944436692161</v>
+        <v>267.4825885308916</v>
       </c>
       <c r="AD5" t="n">
-        <v>191728.1698518342</v>
+        <v>216119.4605877412</v>
       </c>
       <c r="AE5" t="n">
-        <v>262330.9404410456</v>
+        <v>295704.180493699</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.896704534055499e-06</v>
+        <v>5.359661787047082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.245949074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>237294.4436692161</v>
+        <v>267482.5885308916</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.001915454744</v>
+        <v>210.3932061906511</v>
       </c>
       <c r="AB6" t="n">
-        <v>254.4960265504361</v>
+        <v>287.8692666030896</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.2072829639532</v>
+        <v>260.3954278256286</v>
       </c>
       <c r="AD6" t="n">
-        <v>186001.915454744</v>
+        <v>210393.2061906511</v>
       </c>
       <c r="AE6" t="n">
-        <v>254496.0265504361</v>
+        <v>287869.2666030896</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.984410251871742e-06</v>
+        <v>5.521940327629586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.092592592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>230207.2829639532</v>
+        <v>260395.4278256287</v>
       </c>
     </row>
     <row r="7">
@@ -7257,28 +7257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>169.7723551783068</v>
+        <v>206.2738161647692</v>
       </c>
       <c r="AB7" t="n">
-        <v>232.290026182559</v>
+        <v>282.232935435019</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.120592104862</v>
+        <v>255.2970201935965</v>
       </c>
       <c r="AD7" t="n">
-        <v>169772.3551783068</v>
+        <v>206273.8161647692</v>
       </c>
       <c r="AE7" t="n">
-        <v>232290.026182559</v>
+        <v>282232.935435019</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.045699217555308e-06</v>
+        <v>5.635340960479756e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.988425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>210120.592104862</v>
+        <v>255297.0201935965</v>
       </c>
     </row>
     <row r="8">
@@ -7363,28 +7363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>167.5086696229944</v>
+        <v>204.0101306094568</v>
       </c>
       <c r="AB8" t="n">
-        <v>229.1927517390236</v>
+        <v>279.1356609914837</v>
       </c>
       <c r="AC8" t="n">
-        <v>207.3189171871647</v>
+        <v>252.4953452758992</v>
       </c>
       <c r="AD8" t="n">
-        <v>167508.6696229944</v>
+        <v>204010.1306094567</v>
       </c>
       <c r="AE8" t="n">
-        <v>229192.7517390236</v>
+        <v>279135.6609914837</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.08036135753059e-06</v>
+        <v>5.699474994482422e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.933449074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>207318.9171871647</v>
+        <v>252495.3452758992</v>
       </c>
     </row>
     <row r="9">
@@ -7469,28 +7469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>165.2766314438327</v>
+        <v>201.7780924302951</v>
       </c>
       <c r="AB9" t="n">
-        <v>226.1387786317214</v>
+        <v>276.0816878841815</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.5564109869442</v>
+        <v>249.7328390756788</v>
       </c>
       <c r="AD9" t="n">
-        <v>165276.6314438327</v>
+        <v>201778.0924302951</v>
       </c>
       <c r="AE9" t="n">
-        <v>226138.7786317214</v>
+        <v>276081.6878841815</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.115128534293674e-06</v>
+        <v>5.763803374042672e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.878472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>204556.4109869442</v>
+        <v>249732.8390756788</v>
       </c>
     </row>
     <row r="10">
@@ -7575,28 +7575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>163.3650875693832</v>
+        <v>199.8665485558456</v>
       </c>
       <c r="AB10" t="n">
-        <v>223.523319971337</v>
+        <v>273.4662292237971</v>
       </c>
       <c r="AC10" t="n">
-        <v>202.1905680302868</v>
+        <v>247.3669961190214</v>
       </c>
       <c r="AD10" t="n">
-        <v>163365.0875693832</v>
+        <v>199866.5485558456</v>
       </c>
       <c r="AE10" t="n">
-        <v>223523.319971337</v>
+        <v>273466.2292237971</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.142753209486096e-06</v>
+        <v>5.814916255687222e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>202190.5680302868</v>
+        <v>247366.9961190214</v>
       </c>
     </row>
     <row r="11">
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>162.0875574023072</v>
+        <v>198.5890183887696</v>
       </c>
       <c r="AB11" t="n">
-        <v>221.7753468360912</v>
+        <v>271.7182560885514</v>
       </c>
       <c r="AC11" t="n">
-        <v>200.6094189977726</v>
+        <v>245.7858470865071</v>
       </c>
       <c r="AD11" t="n">
-        <v>162087.5574023072</v>
+        <v>198589.0183887696</v>
       </c>
       <c r="AE11" t="n">
-        <v>221775.3468360913</v>
+        <v>271718.2560885514</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.156302955112797e-06</v>
+        <v>5.839986832615537e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>200609.4189977726</v>
+        <v>245785.8470865072</v>
       </c>
     </row>
     <row r="12">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>160.5215304506215</v>
+        <v>197.0229914370839</v>
       </c>
       <c r="AB12" t="n">
-        <v>219.6326396725628</v>
+        <v>269.5755489250229</v>
       </c>
       <c r="AC12" t="n">
-        <v>198.6712087986223</v>
+        <v>243.8476368873569</v>
       </c>
       <c r="AD12" t="n">
-        <v>160521.5304506215</v>
+        <v>197022.9914370839</v>
       </c>
       <c r="AE12" t="n">
-        <v>219632.6396725628</v>
+        <v>269575.5489250229</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.182142004912553e-06</v>
+        <v>5.887795839781161e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.774305555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>198671.2087986223</v>
+        <v>243847.6368873568</v>
       </c>
     </row>
     <row r="13">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>159.2214269145033</v>
+        <v>195.7228879009657</v>
       </c>
       <c r="AB13" t="n">
-        <v>217.8537806579268</v>
+        <v>267.7966899103869</v>
       </c>
       <c r="AC13" t="n">
-        <v>197.0621215916983</v>
+        <v>242.2385496804328</v>
       </c>
       <c r="AD13" t="n">
-        <v>159221.4269145033</v>
+        <v>195722.8879009657</v>
       </c>
       <c r="AE13" t="n">
-        <v>217853.7806579268</v>
+        <v>267796.6899103869</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.198055078264841e-06</v>
+        <v>5.917239191755112e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.751157407407408</v>
       </c>
       <c r="AH13" t="n">
-        <v>197062.1215916983</v>
+        <v>242238.5496804328</v>
       </c>
     </row>
     <row r="14">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>158.162880118859</v>
+        <v>194.6643411053214</v>
       </c>
       <c r="AB14" t="n">
-        <v>216.4054302323383</v>
+        <v>266.3483394847984</v>
       </c>
       <c r="AC14" t="n">
-        <v>195.7519996979548</v>
+        <v>240.9284277866894</v>
       </c>
       <c r="AD14" t="n">
-        <v>158162.880118859</v>
+        <v>194664.3411053214</v>
       </c>
       <c r="AE14" t="n">
-        <v>216405.4302323383</v>
+        <v>266348.3394847984</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.210186827256189e-06</v>
+        <v>5.939686103656046e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.733796296296297</v>
       </c>
       <c r="AH14" t="n">
-        <v>195751.9996979548</v>
+        <v>240928.4277866894</v>
       </c>
     </row>
     <row r="15">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>157.1143585075018</v>
+        <v>193.6158194939642</v>
       </c>
       <c r="AB15" t="n">
-        <v>214.9707967061713</v>
+        <v>264.9137059586313</v>
       </c>
       <c r="AC15" t="n">
-        <v>194.454285582004</v>
+        <v>239.6307136707386</v>
       </c>
       <c r="AD15" t="n">
-        <v>157114.3585075018</v>
+        <v>193615.8194939642</v>
       </c>
       <c r="AE15" t="n">
-        <v>214970.7967061713</v>
+        <v>264913.7059586314</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.220900579612185e-06</v>
+        <v>5.959509350529598e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.719328703703703</v>
       </c>
       <c r="AH15" t="n">
-        <v>194454.285582004</v>
+        <v>239630.7136707386</v>
       </c>
     </row>
     <row r="16">
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>156.9104708160575</v>
+        <v>193.4119318025199</v>
       </c>
       <c r="AB16" t="n">
-        <v>214.6918285718472</v>
+        <v>264.6347378243073</v>
       </c>
       <c r="AC16" t="n">
-        <v>194.2019417748855</v>
+        <v>239.37836986362</v>
       </c>
       <c r="AD16" t="n">
-        <v>156910.4708160575</v>
+        <v>193411.9318025199</v>
       </c>
       <c r="AE16" t="n">
-        <v>214691.8285718472</v>
+        <v>264634.7378243073</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.219745174946343e-06</v>
+        <v>5.957371549396175e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.719328703703703</v>
       </c>
       <c r="AH16" t="n">
-        <v>194201.9417748855</v>
+        <v>239378.36986362</v>
       </c>
     </row>
     <row r="17">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>155.5812227249298</v>
+        <v>192.0826837113922</v>
       </c>
       <c r="AB17" t="n">
-        <v>212.8730926912802</v>
+        <v>262.8160019437402</v>
       </c>
       <c r="AC17" t="n">
-        <v>192.5567834941473</v>
+        <v>237.7332115828819</v>
       </c>
       <c r="AD17" t="n">
-        <v>155581.2227249298</v>
+        <v>192082.6837113922</v>
       </c>
       <c r="AE17" t="n">
-        <v>212873.0926912802</v>
+        <v>262816.0019437402</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.236761134570572e-06</v>
+        <v>5.988855529724757e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.696180555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>192556.7834941473</v>
+        <v>237733.2115828819</v>
       </c>
     </row>
     <row r="18">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>155.1448718839241</v>
+        <v>191.6463328703865</v>
       </c>
       <c r="AB18" t="n">
-        <v>212.276058220176</v>
+        <v>262.2189674726361</v>
       </c>
       <c r="AC18" t="n">
-        <v>192.016729155022</v>
+        <v>237.1931572437566</v>
       </c>
       <c r="AD18" t="n">
-        <v>155144.8718839241</v>
+        <v>191646.3328703865</v>
       </c>
       <c r="AE18" t="n">
-        <v>212276.058220176</v>
+        <v>262218.9674726361</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.235238101147415e-06</v>
+        <v>5.98603751913979e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.696180555555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>192016.729155022</v>
+        <v>237193.1572437565</v>
       </c>
     </row>
     <row r="19">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>154.0724040624794</v>
+        <v>190.5738650489417</v>
       </c>
       <c r="AB19" t="n">
-        <v>210.808660432935</v>
+        <v>260.7515696853951</v>
       </c>
       <c r="AC19" t="n">
-        <v>190.6893777530891</v>
+        <v>235.8658058418236</v>
       </c>
       <c r="AD19" t="n">
-        <v>154072.4040624794</v>
+        <v>190573.8650489417</v>
       </c>
       <c r="AE19" t="n">
-        <v>210808.660432935</v>
+        <v>260751.5696853951</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.248735328380215e-06</v>
+        <v>6.011010923289314e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH19" t="n">
-        <v>190689.3777530891</v>
+        <v>235865.8058418236</v>
       </c>
     </row>
     <row r="20">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>153.4732496555277</v>
+        <v>189.9747106419901</v>
       </c>
       <c r="AB20" t="n">
-        <v>209.9888709405173</v>
+        <v>259.9317801929773</v>
       </c>
       <c r="AC20" t="n">
-        <v>189.9478278192456</v>
+        <v>235.1242559079802</v>
       </c>
       <c r="AD20" t="n">
-        <v>153473.2496555277</v>
+        <v>189974.7106419901</v>
       </c>
       <c r="AE20" t="n">
-        <v>209988.8709405173</v>
+        <v>259931.7801929773</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.249785696258253e-06</v>
+        <v>6.012954378865152e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH20" t="n">
-        <v>189947.8278192456</v>
+        <v>235124.2559079802</v>
       </c>
     </row>
     <row r="21">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>152.3284995573617</v>
+        <v>188.8299605438241</v>
       </c>
       <c r="AB21" t="n">
-        <v>208.4225733533973</v>
+        <v>258.3654826058573</v>
       </c>
       <c r="AC21" t="n">
-        <v>188.5310154755274</v>
+        <v>233.707443564262</v>
       </c>
       <c r="AD21" t="n">
-        <v>152328.4995573616</v>
+        <v>188829.9605438241</v>
       </c>
       <c r="AE21" t="n">
-        <v>208422.5733533973</v>
+        <v>258365.4826058573</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.260026783069132e-06</v>
+        <v>6.031903070729577e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>188531.0154755274</v>
+        <v>233707.443564262</v>
       </c>
     </row>
     <row r="22">
@@ -8847,28 +8847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>152.1917183323305</v>
+        <v>188.6931793187929</v>
       </c>
       <c r="AB22" t="n">
-        <v>208.235423246948</v>
+        <v>258.178332499408</v>
       </c>
       <c r="AC22" t="n">
-        <v>188.3617267125708</v>
+        <v>233.5381548013053</v>
       </c>
       <c r="AD22" t="n">
-        <v>152191.7183323305</v>
+        <v>188693.1793187929</v>
       </c>
       <c r="AE22" t="n">
-        <v>208235.423246948</v>
+        <v>258178.332499408</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.262495147582524e-06</v>
+        <v>6.036470191332797e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.658564814814816</v>
       </c>
       <c r="AH22" t="n">
-        <v>188361.7267125708</v>
+        <v>233538.1548013053</v>
       </c>
     </row>
     <row r="23">
@@ -8953,28 +8953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>151.4507965380857</v>
+        <v>187.9522575245481</v>
       </c>
       <c r="AB23" t="n">
-        <v>207.2216613609002</v>
+        <v>257.1645706133602</v>
       </c>
       <c r="AC23" t="n">
-        <v>187.4447168381033</v>
+        <v>232.6211449268378</v>
       </c>
       <c r="AD23" t="n">
-        <v>151450.7965380857</v>
+        <v>187952.2575245481</v>
       </c>
       <c r="AE23" t="n">
-        <v>207221.6613609002</v>
+        <v>257164.5706133602</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.265908843186149e-06</v>
+        <v>6.042786421954271e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.652777777777778</v>
       </c>
       <c r="AH23" t="n">
-        <v>187444.7168381033</v>
+        <v>232621.1449268378</v>
       </c>
     </row>
     <row r="24">
@@ -9059,28 +9059,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>150.5529650539815</v>
+        <v>187.0544260404439</v>
       </c>
       <c r="AB24" t="n">
-        <v>205.9932087148198</v>
+        <v>255.9361179672799</v>
       </c>
       <c r="AC24" t="n">
-        <v>186.3335059884203</v>
+        <v>231.5099340771549</v>
       </c>
       <c r="AD24" t="n">
-        <v>150552.9650539815</v>
+        <v>187054.4260404439</v>
       </c>
       <c r="AE24" t="n">
-        <v>205993.2087148198</v>
+        <v>255936.1179672799</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.262915294733739e-06</v>
+        <v>6.037247573563132e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.658564814814816</v>
       </c>
       <c r="AH24" t="n">
-        <v>186333.5059884203</v>
+        <v>231509.9340771549</v>
       </c>
     </row>
     <row r="25">
@@ -9165,28 +9165,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>149.9279555043776</v>
+        <v>186.42941649084</v>
       </c>
       <c r="AB25" t="n">
-        <v>205.1380430755769</v>
+        <v>255.080952328037</v>
       </c>
       <c r="AC25" t="n">
-        <v>185.559956157554</v>
+        <v>230.7363842462886</v>
       </c>
       <c r="AD25" t="n">
-        <v>149927.9555043776</v>
+        <v>186429.41649084</v>
       </c>
       <c r="AE25" t="n">
-        <v>205138.0430755769</v>
+        <v>255080.952328037</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.276675113936047e-06</v>
+        <v>6.062706841606615e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.638310185185186</v>
       </c>
       <c r="AH25" t="n">
-        <v>185559.956157554</v>
+        <v>230736.3842462886</v>
       </c>
     </row>
     <row r="26">
@@ -9271,28 +9271,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>149.6522152919869</v>
+        <v>186.1536762784493</v>
       </c>
       <c r="AB26" t="n">
-        <v>204.7607631521845</v>
+        <v>254.7036724046446</v>
       </c>
       <c r="AC26" t="n">
-        <v>185.2186833005343</v>
+        <v>230.3951113892689</v>
       </c>
       <c r="AD26" t="n">
-        <v>149652.2152919869</v>
+        <v>186153.6762784493</v>
       </c>
       <c r="AE26" t="n">
-        <v>204760.7631521845</v>
+        <v>254703.6724046446</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.276254966784832e-06</v>
+        <v>6.061929459376279e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.638310185185186</v>
       </c>
       <c r="AH26" t="n">
-        <v>185218.6833005343</v>
+        <v>230395.1113892689</v>
       </c>
     </row>
     <row r="27">
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>149.4815703128827</v>
+        <v>185.9830312993451</v>
       </c>
       <c r="AB27" t="n">
-        <v>204.5272791634491</v>
+        <v>254.4701884159091</v>
       </c>
       <c r="AC27" t="n">
-        <v>185.0074826959869</v>
+        <v>230.1839107847214</v>
       </c>
       <c r="AD27" t="n">
-        <v>149481.5703128827</v>
+        <v>185983.0312993451</v>
       </c>
       <c r="AE27" t="n">
-        <v>204527.2791634491</v>
+        <v>254470.1884159092</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.276990224299459e-06</v>
+        <v>6.063289878279367e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4.638310185185186</v>
       </c>
       <c r="AH27" t="n">
-        <v>185007.4826959869</v>
+        <v>230183.9107847214</v>
       </c>
     </row>
     <row r="28">
@@ -9483,28 +9483,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>149.6577803817879</v>
+        <v>186.1592413682503</v>
       </c>
       <c r="AB28" t="n">
-        <v>204.7683775535646</v>
+        <v>254.7112868060247</v>
       </c>
       <c r="AC28" t="n">
-        <v>185.2255709941336</v>
+        <v>230.4019990828682</v>
       </c>
       <c r="AD28" t="n">
-        <v>149657.7803817879</v>
+        <v>186159.2413682503</v>
       </c>
       <c r="AE28" t="n">
-        <v>204768.3775535646</v>
+        <v>254711.2868060247</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.276044893209224e-06</v>
+        <v>6.061540768261112e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4.638310185185186</v>
       </c>
       <c r="AH28" t="n">
-        <v>185225.5709941337</v>
+        <v>230401.9990828682</v>
       </c>
     </row>
   </sheetData>
@@ -9780,28 +9780,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.6905408811118</v>
+        <v>330.5747972113885</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.1579135768991</v>
+        <v>452.3070214753935</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.1126670881723</v>
+        <v>409.1394741626729</v>
       </c>
       <c r="AD2" t="n">
-        <v>283690.5408811118</v>
+        <v>330574.7972113885</v>
       </c>
       <c r="AE2" t="n">
-        <v>388157.9135768991</v>
+        <v>452307.0214753935</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.1234702161353e-06</v>
+        <v>4.04766195220575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.40162037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>351112.6670881723</v>
+        <v>409139.4741626729</v>
       </c>
     </row>
     <row r="3">
@@ -9886,28 +9886,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.416181401111</v>
+        <v>228.7073177992623</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.6405523125788</v>
+        <v>312.92744206756</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.3836294252916</v>
+        <v>283.0620861931482</v>
       </c>
       <c r="AD3" t="n">
-        <v>193416.181401111</v>
+        <v>228707.3177992623</v>
       </c>
       <c r="AE3" t="n">
-        <v>264640.5523125788</v>
+        <v>312927.44206756</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.758202275367965e-06</v>
+        <v>5.257559216824396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.700231481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>239383.6294252916</v>
+        <v>283062.0861931482</v>
       </c>
     </row>
     <row r="4">
@@ -9992,28 +9992,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.784263830299</v>
+        <v>201.3117776042842</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.2522730606729</v>
+        <v>275.4436553668755</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.0366175265423</v>
+        <v>249.15569948634</v>
       </c>
       <c r="AD4" t="n">
-        <v>177784.263830299</v>
+        <v>201311.7776042842</v>
       </c>
       <c r="AE4" t="n">
-        <v>243252.2730606729</v>
+        <v>275443.6553668755</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.993612188288888e-06</v>
+        <v>5.706286842228195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.251736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>220036.6175265423</v>
+        <v>249155.69948634</v>
       </c>
     </row>
     <row r="5">
@@ -10098,28 +10098,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.3320072407677</v>
+        <v>193.8595210147529</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.0557668245241</v>
+        <v>265.2471491307267</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.8132515346819</v>
+        <v>239.9323334944795</v>
       </c>
       <c r="AD5" t="n">
-        <v>170332.0072407677</v>
+        <v>193859.5210147529</v>
       </c>
       <c r="AE5" t="n">
-        <v>233055.7668245241</v>
+        <v>265247.1491307266</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.120960638758918e-06</v>
+        <v>5.949032642815896e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.037615740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>210813.2515346819</v>
+        <v>239932.3334944795</v>
       </c>
     </row>
     <row r="6">
@@ -10204,28 +10204,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.9089314802309</v>
+        <v>189.1147270238105</v>
       </c>
       <c r="AB6" t="n">
-        <v>210.5849900340014</v>
+        <v>258.755112666785</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.4870541431063</v>
+        <v>234.0598878790241</v>
       </c>
       <c r="AD6" t="n">
-        <v>153908.9314802309</v>
+        <v>189114.7270238105</v>
       </c>
       <c r="AE6" t="n">
-        <v>210584.9900340014</v>
+        <v>258755.112666785</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.201368363458425e-06</v>
+        <v>6.102302175610177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.910300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>190487.0541431063</v>
+        <v>234059.8878790241</v>
       </c>
     </row>
     <row r="7">
@@ -10310,28 +10310,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.894582534278</v>
+        <v>186.1003780778577</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.4606248224608</v>
+        <v>254.6307474552444</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.7563125587709</v>
+        <v>230.3291462946887</v>
       </c>
       <c r="AD7" t="n">
-        <v>150894.582534278</v>
+        <v>186100.3780778577</v>
       </c>
       <c r="AE7" t="n">
-        <v>206460.6248224608</v>
+        <v>254630.7474552444</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.252166486832776e-06</v>
+        <v>6.199131238557917e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>186756.3125587709</v>
+        <v>230329.1462946887</v>
       </c>
     </row>
     <row r="8">
@@ -10416,28 +10416,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>148.7231045272686</v>
+        <v>183.9289000708483</v>
       </c>
       <c r="AB8" t="n">
-        <v>203.4895128144236</v>
+        <v>251.6596354472072</v>
       </c>
       <c r="AC8" t="n">
-        <v>184.0687593107978</v>
+        <v>227.6415930467157</v>
       </c>
       <c r="AD8" t="n">
-        <v>148723.1045272686</v>
+        <v>183928.9000708483</v>
       </c>
       <c r="AE8" t="n">
-        <v>203489.5128144236</v>
+        <v>251659.6354472072</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.287806667510395e-06</v>
+        <v>6.267066923364029e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.780092592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>184068.7593107978</v>
+        <v>227641.5930467157</v>
       </c>
     </row>
     <row r="9">
@@ -10522,28 +10522,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>147.1636248143588</v>
+        <v>182.3694203579384</v>
       </c>
       <c r="AB9" t="n">
-        <v>201.355763871832</v>
+        <v>249.5258865046156</v>
       </c>
       <c r="AC9" t="n">
-        <v>182.1386523725511</v>
+        <v>225.7114861084689</v>
       </c>
       <c r="AD9" t="n">
-        <v>147163.6248143588</v>
+        <v>182369.4203579384</v>
       </c>
       <c r="AE9" t="n">
-        <v>201355.7638718321</v>
+        <v>249525.8865046156</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.309212507734454e-06</v>
+        <v>6.307869758445751e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.751157407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>182138.6523725511</v>
+        <v>225711.4861084689</v>
       </c>
     </row>
     <row r="10">
@@ -10628,28 +10628,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>145.4218409279842</v>
+        <v>180.6276364715638</v>
       </c>
       <c r="AB10" t="n">
-        <v>198.9725783164137</v>
+        <v>247.1427009491973</v>
       </c>
       <c r="AC10" t="n">
-        <v>179.9829147017192</v>
+        <v>223.555748437637</v>
       </c>
       <c r="AD10" t="n">
-        <v>145421.8409279842</v>
+        <v>180627.6364715638</v>
       </c>
       <c r="AE10" t="n">
-        <v>198972.5783164137</v>
+        <v>247142.7009491973</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.335779654611521e-06</v>
+        <v>6.358510840564943e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>179982.9147017192</v>
+        <v>223555.7484376371</v>
       </c>
     </row>
     <row r="11">
@@ -10734,28 +10734,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>143.5666181659762</v>
+        <v>178.7724137095558</v>
       </c>
       <c r="AB11" t="n">
-        <v>196.4341806867839</v>
+        <v>244.6043033195675</v>
       </c>
       <c r="AC11" t="n">
-        <v>177.686778179197</v>
+        <v>221.2596119151148</v>
       </c>
       <c r="AD11" t="n">
-        <v>143566.6181659762</v>
+        <v>178772.4137095558</v>
       </c>
       <c r="AE11" t="n">
-        <v>196434.1806867839</v>
+        <v>244604.3033195675</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.360825574264543e-06</v>
+        <v>6.40625222882046e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH11" t="n">
-        <v>177686.778179197</v>
+        <v>221259.6119151148</v>
       </c>
     </row>
     <row r="12">
@@ -10840,28 +10840,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>142.3486292283167</v>
+        <v>177.5544247718963</v>
       </c>
       <c r="AB12" t="n">
-        <v>194.7676744883993</v>
+        <v>242.9377971211829</v>
       </c>
       <c r="AC12" t="n">
-        <v>176.1793209934296</v>
+        <v>219.7521547293474</v>
       </c>
       <c r="AD12" t="n">
-        <v>142348.6292283167</v>
+        <v>177554.4247718963</v>
       </c>
       <c r="AE12" t="n">
-        <v>194767.6744883993</v>
+        <v>242937.7971211829</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.375820528330126e-06</v>
+        <v>6.43483492547669e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.655671296296297</v>
       </c>
       <c r="AH12" t="n">
-        <v>176179.3209934296</v>
+        <v>219752.1547293474</v>
       </c>
     </row>
     <row r="13">
@@ -10946,28 +10946,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>141.3300664578934</v>
+        <v>176.535862001473</v>
       </c>
       <c r="AB13" t="n">
-        <v>193.3740319700888</v>
+        <v>241.5441546028724</v>
       </c>
       <c r="AC13" t="n">
-        <v>174.9186857610766</v>
+        <v>218.4915194969944</v>
       </c>
       <c r="AD13" t="n">
-        <v>141330.0664578934</v>
+        <v>176535.862001473</v>
       </c>
       <c r="AE13" t="n">
-        <v>193374.0319700888</v>
+        <v>241544.1546028724</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.38581716437385e-06</v>
+        <v>6.453890056580845e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>174918.6857610766</v>
+        <v>218491.5194969944</v>
       </c>
     </row>
     <row r="14">
@@ -11052,28 +11052,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>140.4064737419605</v>
+        <v>175.6122692855401</v>
       </c>
       <c r="AB14" t="n">
-        <v>192.1103316701152</v>
+        <v>240.2804543028988</v>
       </c>
       <c r="AC14" t="n">
-        <v>173.7755912441176</v>
+        <v>217.3484249800354</v>
       </c>
       <c r="AD14" t="n">
-        <v>140406.4737419605</v>
+        <v>175612.2692855401</v>
       </c>
       <c r="AE14" t="n">
-        <v>192110.3316701152</v>
+        <v>240280.4543028988</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.386143141636144e-06</v>
+        <v>6.454511419551632e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH14" t="n">
-        <v>173775.5912441176</v>
+        <v>217348.4249800354</v>
       </c>
     </row>
     <row r="15">
@@ -11158,28 +11158,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>139.5933537981721</v>
+        <v>174.7991493417517</v>
       </c>
       <c r="AB15" t="n">
-        <v>190.9977850907043</v>
+        <v>239.1679077234879</v>
       </c>
       <c r="AC15" t="n">
-        <v>172.7692245487764</v>
+        <v>216.3420582846942</v>
       </c>
       <c r="AD15" t="n">
-        <v>139593.3537981721</v>
+        <v>174799.1493417517</v>
       </c>
       <c r="AE15" t="n">
-        <v>190997.7850907043</v>
+        <v>239167.9077234879</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.399888516196263e-06</v>
+        <v>6.480712224819844e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.623842592592593</v>
       </c>
       <c r="AH15" t="n">
-        <v>172769.2245487764</v>
+        <v>216342.0582846942</v>
       </c>
     </row>
     <row r="16">
@@ -11264,28 +11264,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>138.1584235707784</v>
+        <v>161.7711886907842</v>
       </c>
       <c r="AB16" t="n">
-        <v>189.0344502489314</v>
+        <v>221.3424772077831</v>
       </c>
       <c r="AC16" t="n">
-        <v>170.9932676287439</v>
+        <v>200.2178618392537</v>
       </c>
       <c r="AD16" t="n">
-        <v>138158.4235707784</v>
+        <v>161771.1886907842</v>
       </c>
       <c r="AE16" t="n">
-        <v>189034.4502489314</v>
+        <v>221342.4772077831</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.412655958969496e-06</v>
+        <v>6.505048941175692e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH16" t="n">
-        <v>170993.2676287439</v>
+        <v>200217.8618392537</v>
       </c>
     </row>
     <row r="17">
@@ -11370,28 +11370,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>137.435858685737</v>
+        <v>161.0486238057428</v>
       </c>
       <c r="AB17" t="n">
-        <v>188.0458050959053</v>
+        <v>220.353832054757</v>
       </c>
       <c r="AC17" t="n">
-        <v>170.0989773815501</v>
+        <v>199.32357159206</v>
       </c>
       <c r="AD17" t="n">
-        <v>137435.858685737</v>
+        <v>161048.6238057428</v>
       </c>
       <c r="AE17" t="n">
-        <v>188045.8050959053</v>
+        <v>220353.832054757</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.411569368095178e-06</v>
+        <v>6.502977731273067e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH17" t="n">
-        <v>170098.9773815501</v>
+        <v>199323.57159206</v>
       </c>
     </row>
     <row r="18">
@@ -11476,28 +11476,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>136.2424499993649</v>
+        <v>159.8552151193707</v>
       </c>
       <c r="AB18" t="n">
-        <v>186.4129306817364</v>
+        <v>218.7209576405882</v>
       </c>
       <c r="AC18" t="n">
-        <v>168.6219422097154</v>
+        <v>197.8465364202253</v>
       </c>
       <c r="AD18" t="n">
-        <v>136242.4499993649</v>
+        <v>159855.2151193707</v>
       </c>
       <c r="AE18" t="n">
-        <v>186412.9306817364</v>
+        <v>218720.9576405882</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.425803708548739e-06</v>
+        <v>6.53011058099746e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>168621.9422097154</v>
+        <v>197846.5364202253</v>
       </c>
     </row>
     <row r="19">
@@ -11582,28 +11582,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>136.1796088455973</v>
+        <v>159.7923739656031</v>
       </c>
       <c r="AB19" t="n">
-        <v>186.3269486427955</v>
+        <v>218.6349756016473</v>
       </c>
       <c r="AC19" t="n">
-        <v>168.5441661758944</v>
+        <v>197.7687603864043</v>
       </c>
       <c r="AD19" t="n">
-        <v>136179.6088455973</v>
+        <v>159792.3739656031</v>
       </c>
       <c r="AE19" t="n">
-        <v>186326.9486427955</v>
+        <v>218634.9756016473</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.424825776761854e-06</v>
+        <v>6.528246492085097e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH19" t="n">
-        <v>168544.1661758944</v>
+        <v>197768.7603864043</v>
       </c>
     </row>
     <row r="20">
@@ -11688,28 +11688,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>136.3960285446117</v>
+        <v>160.0087936646175</v>
       </c>
       <c r="AB20" t="n">
-        <v>186.6230636227502</v>
+        <v>218.9310905816019</v>
       </c>
       <c r="AC20" t="n">
-        <v>168.8120203577623</v>
+        <v>198.0366145682721</v>
       </c>
       <c r="AD20" t="n">
-        <v>136396.0285446117</v>
+        <v>160008.7936646175</v>
       </c>
       <c r="AE20" t="n">
-        <v>186623.0636227502</v>
+        <v>218931.090581602</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.424119492693547e-06</v>
+        <v>6.526900205648391e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.592013888888888</v>
       </c>
       <c r="AH20" t="n">
-        <v>168812.0203577623</v>
+        <v>198036.6145682721</v>
       </c>
     </row>
   </sheetData>
@@ -11985,28 +11985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.4763375769575</v>
+        <v>176.8666650505297</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.0471430357615</v>
+        <v>241.9967739285922</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.0503630689047</v>
+        <v>218.9009414695229</v>
       </c>
       <c r="AD2" t="n">
-        <v>145476.3375769575</v>
+        <v>176866.6650505298</v>
       </c>
       <c r="AE2" t="n">
-        <v>199047.1430357615</v>
+        <v>241996.7739285922</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.149591200454533e-06</v>
+        <v>6.707804999709248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.570023148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>180050.3630689047</v>
+        <v>218900.9414695229</v>
       </c>
     </row>
     <row r="3">
@@ -12091,28 +12091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.6489925197586</v>
+        <v>147.9539791387592</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.604297755815</v>
+        <v>202.4371615264481</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.3718875840827</v>
+        <v>183.1168429527621</v>
       </c>
       <c r="AD3" t="n">
-        <v>116648.9925197586</v>
+        <v>147953.9791387592</v>
       </c>
       <c r="AE3" t="n">
-        <v>159604.297755815</v>
+        <v>202437.1615264481</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.596449644404842e-06</v>
+        <v>7.659496541157421e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.878472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>144371.8875840827</v>
+        <v>183116.8429527621</v>
       </c>
     </row>
     <row r="4">
@@ -12197,28 +12197,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.9678420827208</v>
+        <v>142.2728287017214</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.8310970931954</v>
+        <v>194.6639608638285</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.3405502829454</v>
+        <v>176.0855056516249</v>
       </c>
       <c r="AD4" t="n">
-        <v>110967.8420827208</v>
+        <v>142272.8287017214</v>
       </c>
       <c r="AE4" t="n">
-        <v>151831.0970931954</v>
+        <v>194663.9608638285</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.73982506428579e-06</v>
+        <v>7.964848663735758e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.690393518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>137340.5502829454</v>
+        <v>176085.5056516248</v>
       </c>
     </row>
     <row r="5">
@@ -12303,28 +12303,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.2729542395511</v>
+        <v>128.2851800765042</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.7755885392259</v>
+        <v>175.5254429233107</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.7675323699143</v>
+        <v>158.7735410022653</v>
       </c>
       <c r="AD5" t="n">
-        <v>107272.9542395511</v>
+        <v>128285.1800765042</v>
       </c>
       <c r="AE5" t="n">
-        <v>146775.5885392259</v>
+        <v>175525.4429233107</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.818332958047241e-06</v>
+        <v>8.132049931701487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.594907407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>132767.5323699143</v>
+        <v>158773.5410022653</v>
       </c>
     </row>
     <row r="6">
@@ -12409,28 +12409,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.569157839756</v>
+        <v>125.5813836767092</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.0761350219496</v>
+        <v>171.8259894060344</v>
       </c>
       <c r="AC6" t="n">
-        <v>129.4211495041101</v>
+        <v>155.4271581364611</v>
       </c>
       <c r="AD6" t="n">
-        <v>104569.1578397561</v>
+        <v>125581.3836767092</v>
       </c>
       <c r="AE6" t="n">
-        <v>143076.1350219496</v>
+        <v>171825.9894060344</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.862527749207161e-06</v>
+        <v>8.226173270965591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>129421.1495041101</v>
+        <v>155427.158136461</v>
       </c>
     </row>
     <row r="7">
@@ -12515,28 +12515,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.5337524753592</v>
+        <v>125.5459783123123</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.0276918404074</v>
+        <v>171.7775462244921</v>
       </c>
       <c r="AC7" t="n">
-        <v>129.3773296718238</v>
+        <v>155.3833383041748</v>
       </c>
       <c r="AD7" t="n">
-        <v>104533.7524753592</v>
+        <v>125545.9783123123</v>
       </c>
       <c r="AE7" t="n">
-        <v>143027.6918404074</v>
+        <v>171777.5462244921</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.870166355086654e-06</v>
+        <v>8.242441502443337e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>129377.3296718238</v>
+        <v>155383.3383041748</v>
       </c>
     </row>
   </sheetData>
@@ -12812,28 +12812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.683663891193</v>
+        <v>223.5138006837731</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.9018013053463</v>
+        <v>305.8214428283466</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.0016995668181</v>
+        <v>276.6342735479905</v>
       </c>
       <c r="AD2" t="n">
-        <v>190683.663891193</v>
+        <v>223513.8006837731</v>
       </c>
       <c r="AE2" t="n">
-        <v>260901.8013053463</v>
+        <v>305821.4428283466</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.741166402034553e-06</v>
+        <v>5.565515504146834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.122685185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>236001.6995668181</v>
+        <v>276634.2735479905</v>
       </c>
     </row>
     <row r="3">
@@ -12918,28 +12918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.5839957285118</v>
+        <v>171.5276773294633</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.6674221358032</v>
+        <v>234.691735389118</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.1342506197515</v>
+        <v>212.2930855555678</v>
       </c>
       <c r="AD3" t="n">
-        <v>149583.9957285118</v>
+        <v>171527.6773294633</v>
       </c>
       <c r="AE3" t="n">
-        <v>204667.4221358032</v>
+        <v>234691.735389118</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.265690541760359e-06</v>
+        <v>6.63048085239294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>185134.2506197515</v>
+        <v>212293.0855555678</v>
       </c>
     </row>
     <row r="4">
@@ -13024,28 +13024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.3610169949433</v>
+        <v>163.1910642789723</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.3656945745791</v>
+        <v>223.2852136280311</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.3427230222558</v>
+        <v>201.9751862222016</v>
       </c>
       <c r="AD4" t="n">
-        <v>130361.0169949433</v>
+        <v>163191.0642789723</v>
       </c>
       <c r="AE4" t="n">
-        <v>178365.6945745791</v>
+        <v>223285.2136280311</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.445364998291821e-06</v>
+        <v>6.995282118300329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.869791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>161342.7230222558</v>
+        <v>201975.1862222016</v>
       </c>
     </row>
     <row r="5">
@@ -13130,28 +13130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.9075711644119</v>
+        <v>158.7376184484409</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.2722935170854</v>
+        <v>217.1918125705374</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.8308676095452</v>
+        <v>196.4633308094911</v>
       </c>
       <c r="AD5" t="n">
-        <v>125907.5711644119</v>
+        <v>158737.6184484409</v>
       </c>
       <c r="AE5" t="n">
-        <v>172272.2935170854</v>
+        <v>217191.8125705374</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.542219853813946e-06</v>
+        <v>7.19193096080044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.736689814814816</v>
       </c>
       <c r="AH5" t="n">
-        <v>155830.8676095452</v>
+        <v>196463.330809491</v>
       </c>
     </row>
     <row r="6">
@@ -13236,28 +13236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.0950478502838</v>
+        <v>155.9250951343128</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.4240750389257</v>
+        <v>213.3435940923777</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.3499177019313</v>
+        <v>192.9823809018771</v>
       </c>
       <c r="AD6" t="n">
-        <v>123095.0478502838</v>
+        <v>155925.0951343128</v>
       </c>
       <c r="AE6" t="n">
-        <v>168424.0750389257</v>
+        <v>213343.5940923778</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.596040995086121e-06</v>
+        <v>7.301206485255592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.66724537037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>152349.9177019313</v>
+        <v>192982.3809018771</v>
       </c>
     </row>
     <row r="7">
@@ -13342,28 +13342,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.3682711564434</v>
+        <v>142.3972041034154</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.6931788695176</v>
+        <v>194.8341367754816</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.9750930265847</v>
+        <v>176.2394402131132</v>
       </c>
       <c r="AD7" t="n">
-        <v>120368.2711564434</v>
+        <v>142397.2041034154</v>
       </c>
       <c r="AE7" t="n">
-        <v>164693.1788695176</v>
+        <v>194834.1367754816</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.645512367397721e-06</v>
+        <v>7.401650474867924e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.603587962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>148975.0930265847</v>
+        <v>176239.4402131132</v>
       </c>
     </row>
     <row r="8">
@@ -13448,28 +13448,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.616601083552</v>
+        <v>140.645534030524</v>
       </c>
       <c r="AB8" t="n">
-        <v>162.2964665975592</v>
+        <v>192.4374245035232</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.8071196100545</v>
+        <v>174.071466796583</v>
       </c>
       <c r="AD8" t="n">
-        <v>118616.601083552</v>
+        <v>140645.534030524</v>
       </c>
       <c r="AE8" t="n">
-        <v>162296.4665975592</v>
+        <v>192437.4245035232</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.671610981161168e-06</v>
+        <v>7.45463968392484e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.57175925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>146807.1196100544</v>
+        <v>174071.466796583</v>
       </c>
     </row>
     <row r="9">
@@ -13554,28 +13554,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>116.5749067064248</v>
+        <v>138.6038396533968</v>
       </c>
       <c r="AB9" t="n">
-        <v>159.5029302775763</v>
+        <v>189.6438881835403</v>
       </c>
       <c r="AC9" t="n">
-        <v>144.280194475697</v>
+        <v>171.5445416622255</v>
       </c>
       <c r="AD9" t="n">
-        <v>116574.9067064248</v>
+        <v>138603.8396533968</v>
       </c>
       <c r="AE9" t="n">
-        <v>159502.9302775763</v>
+        <v>189643.8881835403</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.694461767434052e-06</v>
+        <v>7.501034680299116e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>144280.1944756969</v>
+        <v>171544.5416622255</v>
       </c>
     </row>
     <row r="10">
@@ -13660,28 +13660,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.6567191003994</v>
+        <v>137.6856520473714</v>
       </c>
       <c r="AB10" t="n">
-        <v>158.2466254874346</v>
+        <v>188.3875833933986</v>
       </c>
       <c r="AC10" t="n">
-        <v>143.1437896514911</v>
+        <v>170.4081368380197</v>
       </c>
       <c r="AD10" t="n">
-        <v>115656.7191003994</v>
+        <v>137685.6520473714</v>
       </c>
       <c r="AE10" t="n">
-        <v>158246.6254874346</v>
+        <v>188387.5833933986</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.704379240664162e-06</v>
+        <v>7.521170579740745e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH10" t="n">
-        <v>143143.7896514912</v>
+        <v>170408.1368380197</v>
       </c>
     </row>
     <row r="11">
@@ -13766,28 +13766,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.0859292452732</v>
+        <v>138.1148621922452</v>
       </c>
       <c r="AB11" t="n">
-        <v>158.8338897430659</v>
+        <v>188.9748476490299</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.6750062307957</v>
+        <v>170.9393534173242</v>
       </c>
       <c r="AD11" t="n">
-        <v>116085.9292452732</v>
+        <v>138114.8621922452</v>
       </c>
       <c r="AE11" t="n">
-        <v>158833.8897430659</v>
+        <v>188974.8476490299</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.701363400851497e-06</v>
+        <v>7.515047382249723e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.534143518518518</v>
       </c>
       <c r="AH11" t="n">
-        <v>143675.0062307957</v>
+        <v>170939.3534173242</v>
       </c>
     </row>
   </sheetData>
@@ -14063,28 +14063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.4099497475279</v>
+        <v>142.5030158500656</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.4866935903404</v>
+        <v>194.9789130753332</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.5019986231756</v>
+        <v>176.3703992661018</v>
       </c>
       <c r="AD2" t="n">
-        <v>122409.9497475279</v>
+        <v>142503.0158500656</v>
       </c>
       <c r="AE2" t="n">
-        <v>167486.6935903404</v>
+        <v>194978.9130753332</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.506030338377937e-06</v>
+        <v>7.807244751553748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>151501.9986231755</v>
+        <v>176370.3992661018</v>
       </c>
     </row>
     <row r="3">
@@ -14169,28 +14169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.6328878025249</v>
+        <v>130.6870118389334</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.6903567010347</v>
+        <v>178.8117351020036</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.5493823071542</v>
+        <v>161.7461940677649</v>
       </c>
       <c r="AD3" t="n">
-        <v>100632.8878025249</v>
+        <v>130687.0118389334</v>
       </c>
       <c r="AE3" t="n">
-        <v>137690.3567010347</v>
+        <v>178811.7351020036</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.864037818156993e-06</v>
+        <v>8.604457481554012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>124549.3823071542</v>
+        <v>161746.1940677649</v>
       </c>
     </row>
     <row r="4">
@@ -14275,28 +14275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.66786260734582</v>
+        <v>115.8461800559042</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.8969901875416</v>
+        <v>158.5058543251836</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.404365159157</v>
+        <v>143.3782780527954</v>
       </c>
       <c r="AD4" t="n">
-        <v>95667.86260734583</v>
+        <v>115846.1800559042</v>
       </c>
       <c r="AE4" t="n">
-        <v>130896.9901875416</v>
+        <v>158505.8543251836</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.992671177493718e-06</v>
+        <v>8.890898847609329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.563078703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>118404.365159157</v>
+        <v>143378.2780527954</v>
       </c>
     </row>
     <row r="5">
@@ -14381,28 +14381,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.61523775235661</v>
+        <v>115.7935552009149</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.8249865393006</v>
+        <v>158.4338506769426</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.3392334380464</v>
+        <v>143.3131463316848</v>
       </c>
       <c r="AD5" t="n">
-        <v>95615.23775235661</v>
+        <v>115793.5552009149</v>
       </c>
       <c r="AE5" t="n">
-        <v>130824.9865393006</v>
+        <v>158433.8506769426</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.998652660184362e-06</v>
+        <v>8.904218441234026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>118339.2334380464</v>
+        <v>143313.1463316848</v>
       </c>
     </row>
   </sheetData>
@@ -14678,28 +14678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.7882187899893</v>
+        <v>348.2971401003568</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.5517107881392</v>
+        <v>476.5555128706676</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.2737931269724</v>
+        <v>431.0737235721535</v>
       </c>
       <c r="AD2" t="n">
-        <v>300788.2187899894</v>
+        <v>348297.1401003568</v>
       </c>
       <c r="AE2" t="n">
-        <v>411551.7107881393</v>
+        <v>476555.5128706676</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03181688636671e-06</v>
+        <v>3.841685550036533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.667824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>372273.7931269723</v>
+        <v>431073.7235721535</v>
       </c>
     </row>
     <row r="3">
@@ -14784,28 +14784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.5461083188789</v>
+        <v>235.177799301654</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.027788754754</v>
+        <v>321.7806403166252</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.9703997929885</v>
+        <v>291.0703476268672</v>
       </c>
       <c r="AD3" t="n">
-        <v>199546.1083188789</v>
+        <v>235177.799301654</v>
       </c>
       <c r="AE3" t="n">
-        <v>273027.788754754</v>
+        <v>321780.6403166252</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.701874420109024e-06</v>
+        <v>5.108605990723516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.766782407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>246970.3997929885</v>
+        <v>291070.3476268672</v>
       </c>
     </row>
     <row r="4">
@@ -14890,28 +14890,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.0340541148641</v>
+        <v>218.4951528970469</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.4352677324128</v>
+        <v>298.9547075194372</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.53407726821</v>
+        <v>270.4228898194376</v>
       </c>
       <c r="AD4" t="n">
-        <v>183034.0541148641</v>
+        <v>218495.1528970469</v>
       </c>
       <c r="AE4" t="n">
-        <v>250435.2677324128</v>
+        <v>298954.7075194372</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.940499971699699e-06</v>
+        <v>5.559790514076245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.298032407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>226534.07726821</v>
+        <v>270422.8898194376</v>
       </c>
     </row>
     <row r="5">
@@ -14996,28 +14996,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>175.4514676214915</v>
+        <v>199.2060177852259</v>
       </c>
       <c r="AB5" t="n">
-        <v>240.0604383720788</v>
+        <v>272.5624618828747</v>
       </c>
       <c r="AC5" t="n">
-        <v>217.1494070608585</v>
+        <v>246.5494830646709</v>
       </c>
       <c r="AD5" t="n">
-        <v>175451.4676214915</v>
+        <v>199206.0177852259</v>
       </c>
       <c r="AE5" t="n">
-        <v>240060.4383720788</v>
+        <v>272562.4618828747</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.065358422543284e-06</v>
+        <v>5.795868336651826e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.081018518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>217149.4070608585</v>
+        <v>246549.4830646708</v>
       </c>
     </row>
     <row r="6">
@@ -15102,28 +15102,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.866119198671</v>
+        <v>194.4124693268745</v>
       </c>
       <c r="AB6" t="n">
-        <v>217.3676329660553</v>
+        <v>266.0037174057288</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.6223711532261</v>
+        <v>240.616695955166</v>
       </c>
       <c r="AD6" t="n">
-        <v>158866.119198671</v>
+        <v>194412.4693268745</v>
       </c>
       <c r="AE6" t="n">
-        <v>217367.6329660552</v>
+        <v>266003.7174057288</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.143859337303935e-06</v>
+        <v>5.944295014234921e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.956597222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>196622.3711532261</v>
+        <v>240616.695955166</v>
       </c>
     </row>
     <row r="7">
@@ -15208,28 +15208,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>155.8672329146315</v>
+        <v>191.4135830428349</v>
       </c>
       <c r="AB7" t="n">
-        <v>213.2644244507089</v>
+        <v>261.9005088903824</v>
       </c>
       <c r="AC7" t="n">
-        <v>192.9107670996938</v>
+        <v>236.9050919016337</v>
       </c>
       <c r="AD7" t="n">
-        <v>155867.2329146315</v>
+        <v>191413.5830428349</v>
       </c>
       <c r="AE7" t="n">
-        <v>213264.4244507089</v>
+        <v>261900.5088903824</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193447363706238e-06</v>
+        <v>6.038054252955106e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.878472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>192910.7670996938</v>
+        <v>236905.0919016337</v>
       </c>
     </row>
     <row r="8">
@@ -15314,28 +15314,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>153.704560602368</v>
+        <v>189.2509107305714</v>
       </c>
       <c r="AB8" t="n">
-        <v>210.3053607827027</v>
+        <v>258.9414452223763</v>
       </c>
       <c r="AC8" t="n">
-        <v>190.2341123150893</v>
+        <v>234.2284371170292</v>
       </c>
       <c r="AD8" t="n">
-        <v>153704.560602368</v>
+        <v>189250.9107305714</v>
       </c>
       <c r="AE8" t="n">
-        <v>210305.3607827027</v>
+        <v>258941.4452223763</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.227152146038315e-06</v>
+        <v>6.101782030847437e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.826388888888888</v>
       </c>
       <c r="AH8" t="n">
-        <v>190234.1123150893</v>
+        <v>234228.4371170292</v>
       </c>
     </row>
     <row r="9">
@@ -15420,28 +15420,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>151.3646983492188</v>
+        <v>186.9110484774222</v>
       </c>
       <c r="AB9" t="n">
-        <v>207.1038580205084</v>
+        <v>255.739942460182</v>
       </c>
       <c r="AC9" t="n">
-        <v>187.3381564831805</v>
+        <v>231.3324812851204</v>
       </c>
       <c r="AD9" t="n">
-        <v>151364.6983492188</v>
+        <v>186911.0484774222</v>
       </c>
       <c r="AE9" t="n">
-        <v>207103.8580205084</v>
+        <v>255739.942460182</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.266671810945254e-06</v>
+        <v>6.176504377449626e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.768518518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>187338.1564831804</v>
+        <v>231332.4812851204</v>
       </c>
     </row>
     <row r="10">
@@ -15526,28 +15526,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>149.5554241829334</v>
+        <v>185.1017743111368</v>
       </c>
       <c r="AB10" t="n">
-        <v>204.6283292866552</v>
+        <v>253.2644137263288</v>
       </c>
       <c r="AC10" t="n">
-        <v>185.098888737259</v>
+        <v>229.0932135391988</v>
       </c>
       <c r="AD10" t="n">
-        <v>149555.4241829334</v>
+        <v>185101.7743111368</v>
       </c>
       <c r="AE10" t="n">
-        <v>204628.3292866552</v>
+        <v>253264.4137263288</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.291923476941649e-06</v>
+        <v>6.224249310087809e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.733796296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>185098.888737259</v>
+        <v>229093.2135391989</v>
       </c>
     </row>
     <row r="11">
@@ -15632,28 +15632,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>148.5575668831107</v>
+        <v>184.1039170113141</v>
       </c>
       <c r="AB11" t="n">
-        <v>203.2630169066813</v>
+        <v>251.8991013463549</v>
       </c>
       <c r="AC11" t="n">
-        <v>183.8638798546014</v>
+        <v>227.8582046565413</v>
       </c>
       <c r="AD11" t="n">
-        <v>148557.5668831107</v>
+        <v>184103.9170113141</v>
       </c>
       <c r="AE11" t="n">
-        <v>203263.0169066813</v>
+        <v>251899.1013463549</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.305868426820257e-06</v>
+        <v>6.250615914679046e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>183863.8798546014</v>
+        <v>227858.2046565413</v>
       </c>
     </row>
     <row r="12">
@@ -15738,28 +15738,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>147.4425351082875</v>
+        <v>182.9888852364909</v>
       </c>
       <c r="AB12" t="n">
-        <v>201.7373812406389</v>
+        <v>250.3734656803125</v>
       </c>
       <c r="AC12" t="n">
-        <v>182.4838487152824</v>
+        <v>226.4781735172223</v>
       </c>
       <c r="AD12" t="n">
-        <v>147442.5351082875</v>
+        <v>182988.8852364909</v>
       </c>
       <c r="AE12" t="n">
-        <v>201737.3812406388</v>
+        <v>250373.4656803125</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.317228984443368e-06</v>
+        <v>6.272096044288122e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.696180555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>182483.8487152825</v>
+        <v>226478.1735172223</v>
       </c>
     </row>
     <row r="13">
@@ -15844,28 +15844,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>146.3137488762979</v>
+        <v>181.8600990045013</v>
       </c>
       <c r="AB13" t="n">
-        <v>200.1929261194975</v>
+        <v>248.8290105591711</v>
       </c>
       <c r="AC13" t="n">
-        <v>181.086794223246</v>
+        <v>225.0811190251858</v>
       </c>
       <c r="AD13" t="n">
-        <v>146313.7488762979</v>
+        <v>181860.0990045013</v>
       </c>
       <c r="AE13" t="n">
-        <v>200192.9261194975</v>
+        <v>248829.0105591711</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.32896643260374e-06</v>
+        <v>6.294288784832096e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH13" t="n">
-        <v>181086.794223246</v>
+        <v>225081.1190251858</v>
       </c>
     </row>
     <row r="14">
@@ -15950,28 +15950,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>145.0749619528254</v>
+        <v>180.6213120810288</v>
       </c>
       <c r="AB14" t="n">
-        <v>198.4979631993813</v>
+        <v>247.1340476390549</v>
       </c>
       <c r="AC14" t="n">
-        <v>179.5535961853297</v>
+        <v>223.5479209872696</v>
       </c>
       <c r="AD14" t="n">
-        <v>145074.9619528254</v>
+        <v>180621.3120810288</v>
       </c>
       <c r="AE14" t="n">
-        <v>198497.9631993813</v>
+        <v>247134.0476390549</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.34355748054622e-06</v>
+        <v>6.321877008168871e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.658564814814816</v>
       </c>
       <c r="AH14" t="n">
-        <v>179553.5961853297</v>
+        <v>223547.9209872696</v>
       </c>
     </row>
     <row r="15">
@@ -16056,28 +16056,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>143.7688075585609</v>
+        <v>179.3151576867643</v>
       </c>
       <c r="AB15" t="n">
-        <v>196.7108251336845</v>
+        <v>245.3469095733581</v>
       </c>
       <c r="AC15" t="n">
-        <v>177.9370200683584</v>
+        <v>221.9313448702983</v>
       </c>
       <c r="AD15" t="n">
-        <v>143768.8075585609</v>
+        <v>179315.1576867643</v>
       </c>
       <c r="AE15" t="n">
-        <v>196710.8251336845</v>
+        <v>245346.9095733581</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.356102551286434e-06</v>
+        <v>6.345596772144771e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH15" t="n">
-        <v>177937.0200683584</v>
+        <v>221931.3448702983</v>
       </c>
     </row>
     <row r="16">
@@ -16162,28 +16162,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>143.2425443059496</v>
+        <v>178.788894434153</v>
       </c>
       <c r="AB16" t="n">
-        <v>195.990768534366</v>
+        <v>244.6268529740396</v>
       </c>
       <c r="AC16" t="n">
-        <v>177.2856846602729</v>
+        <v>221.2800094622128</v>
       </c>
       <c r="AD16" t="n">
-        <v>143242.5443059496</v>
+        <v>178788.894434153</v>
       </c>
       <c r="AE16" t="n">
-        <v>195990.768534366</v>
+        <v>244626.8529740396</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.355725660749174e-06</v>
+        <v>6.344884161209872e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH16" t="n">
-        <v>177285.6846602729</v>
+        <v>221280.0094622128</v>
       </c>
     </row>
     <row r="17">
@@ -16268,28 +16268,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>142.162666982722</v>
+        <v>177.7090171109255</v>
       </c>
       <c r="AB17" t="n">
-        <v>194.5132327399016</v>
+        <v>243.1493171795751</v>
       </c>
       <c r="AC17" t="n">
-        <v>175.9491628082971</v>
+        <v>219.943487610237</v>
       </c>
       <c r="AD17" t="n">
-        <v>142162.666982722</v>
+        <v>177709.0171109255</v>
       </c>
       <c r="AE17" t="n">
-        <v>194513.2327399016</v>
+        <v>243149.3171795752</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.368916829553262e-06</v>
+        <v>6.369825543931313e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.623842592592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>175949.1628082971</v>
+        <v>219943.487610237</v>
       </c>
     </row>
     <row r="18">
@@ -16374,28 +16374,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>141.1679704960631</v>
+        <v>176.7143206242665</v>
       </c>
       <c r="AB18" t="n">
-        <v>193.1522451239436</v>
+        <v>241.7883295636173</v>
       </c>
       <c r="AC18" t="n">
-        <v>174.7180659402477</v>
+        <v>218.7123907421876</v>
       </c>
       <c r="AD18" t="n">
-        <v>141167.9704960631</v>
+        <v>176714.3206242665</v>
       </c>
       <c r="AE18" t="n">
-        <v>193152.2451239436</v>
+        <v>241788.3295636172</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.368970671058584e-06</v>
+        <v>6.369927345493441e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.623842592592593</v>
       </c>
       <c r="AH18" t="n">
-        <v>174718.0659402477</v>
+        <v>218712.3907421876</v>
       </c>
     </row>
     <row r="19">
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>140.3591293383503</v>
+        <v>164.1989308481053</v>
       </c>
       <c r="AB19" t="n">
-        <v>192.0455529684081</v>
+        <v>224.6642211318532</v>
       </c>
       <c r="AC19" t="n">
-        <v>173.7169949307839</v>
+        <v>203.2225831853085</v>
       </c>
       <c r="AD19" t="n">
-        <v>140359.1293383503</v>
+        <v>164198.9308481053</v>
       </c>
       <c r="AE19" t="n">
-        <v>192045.5529684081</v>
+        <v>224664.2211318532</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.38097732674557e-06</v>
+        <v>6.392629093848056e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH19" t="n">
-        <v>173716.9949307839</v>
+        <v>203222.5831853085</v>
       </c>
     </row>
     <row r="20">
@@ -16586,28 +16586,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>140.0003959113667</v>
+        <v>163.8401974211217</v>
       </c>
       <c r="AB20" t="n">
-        <v>191.5547180674075</v>
+        <v>224.1733862308526</v>
       </c>
       <c r="AC20" t="n">
-        <v>173.2730046238435</v>
+        <v>202.7785928783681</v>
       </c>
       <c r="AD20" t="n">
-        <v>140000.3959113667</v>
+        <v>163840.1974211217</v>
       </c>
       <c r="AE20" t="n">
-        <v>191554.7180674075</v>
+        <v>224173.3862308526</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.38232336437864e-06</v>
+        <v>6.395174132901265e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH20" t="n">
-        <v>173273.0046238435</v>
+        <v>202778.5928783681</v>
       </c>
     </row>
     <row r="21">
@@ -16692,28 +16692,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>138.9892789879692</v>
+        <v>162.8290804977242</v>
       </c>
       <c r="AB21" t="n">
-        <v>190.1712632854853</v>
+        <v>222.7899314489304</v>
       </c>
       <c r="AC21" t="n">
-        <v>172.0215848246166</v>
+        <v>201.5271730791411</v>
       </c>
       <c r="AD21" t="n">
-        <v>138989.2789879692</v>
+        <v>162829.0804977242</v>
       </c>
       <c r="AE21" t="n">
-        <v>190171.2632854853</v>
+        <v>222789.9314489304</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.384530866096875e-06</v>
+        <v>6.399347996948525e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.603587962962963</v>
       </c>
       <c r="AH21" t="n">
-        <v>172021.5848246166</v>
+        <v>201527.1730791411</v>
       </c>
     </row>
     <row r="22">
@@ -16798,28 +16798,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>139.2625392043963</v>
+        <v>163.1023407141513</v>
       </c>
       <c r="AB22" t="n">
-        <v>190.5451499689906</v>
+        <v>223.1638181324357</v>
       </c>
       <c r="AC22" t="n">
-        <v>172.3597882878015</v>
+        <v>201.8653765423261</v>
       </c>
       <c r="AD22" t="n">
-        <v>139262.5392043963</v>
+        <v>163102.3407141513</v>
       </c>
       <c r="AE22" t="n">
-        <v>190545.1499689906</v>
+        <v>223163.8181324357</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.382431047389286e-06</v>
+        <v>6.395377736025521e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH22" t="n">
-        <v>172359.7882878015</v>
+        <v>201865.3765423261</v>
       </c>
     </row>
   </sheetData>
@@ -17095,28 +17095,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.4301453321097</v>
+        <v>130.029412810258</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.0953966775032</v>
+        <v>177.9119790997489</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.6750640823646</v>
+        <v>160.9323095155495</v>
       </c>
       <c r="AD2" t="n">
-        <v>110430.1453321097</v>
+        <v>130029.412810258</v>
       </c>
       <c r="AE2" t="n">
-        <v>151095.3966775032</v>
+        <v>177911.9790997489</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.716877992074179e-06</v>
+        <v>8.521190891687387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>136675.0640823646</v>
+        <v>160932.3095155495</v>
       </c>
     </row>
     <row r="3">
@@ -17201,28 +17201,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.77530283889992</v>
+        <v>110.4598216630688</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.2027740678538</v>
+        <v>151.1360011427487</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.3490356305388</v>
+        <v>136.7117933144359</v>
       </c>
       <c r="AD3" t="n">
-        <v>90775.30283889992</v>
+        <v>110459.8216630688</v>
       </c>
       <c r="AE3" t="n">
-        <v>124202.7740678538</v>
+        <v>151136.0011427487</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.04491741128314e-06</v>
+        <v>9.273243156259549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>112349.0356305388</v>
+        <v>136711.7933144359</v>
       </c>
     </row>
     <row r="4">
@@ -17307,28 +17307,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.24243218382364</v>
+        <v>109.9269510079925</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.4736769289847</v>
+        <v>150.4069040038796</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.6895224993088</v>
+        <v>136.0522801832059</v>
       </c>
       <c r="AD4" t="n">
-        <v>90242.43218382364</v>
+        <v>109926.9510079925</v>
       </c>
       <c r="AE4" t="n">
-        <v>123473.6769289847</v>
+        <v>150406.9040038796</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068242940600296e-06</v>
+        <v>9.32671848915586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>111689.5224993088</v>
+        <v>136052.2801832059</v>
       </c>
     </row>
   </sheetData>
@@ -17604,28 +17604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.9349126005075</v>
+        <v>274.4307344125667</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.2388473153976</v>
+        <v>375.4882378528059</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.3437713611922</v>
+        <v>339.652167433185</v>
       </c>
       <c r="AD2" t="n">
-        <v>228934.9126005076</v>
+        <v>274430.7344125667</v>
       </c>
       <c r="AE2" t="n">
-        <v>313238.8473153976</v>
+        <v>375488.2378528059</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.404012663506328e-06</v>
+        <v>4.711831597175623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.736111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>283343.7713611922</v>
+        <v>339652.167433185</v>
       </c>
     </row>
     <row r="3">
@@ -17710,28 +17710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.9695030956224</v>
+        <v>204.9847828950007</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.9280167774681</v>
+        <v>280.4692232471884</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.6022551763277</v>
+        <v>253.7016342215863</v>
       </c>
       <c r="AD3" t="n">
-        <v>170969.5030956224</v>
+        <v>204984.7828950007</v>
       </c>
       <c r="AE3" t="n">
-        <v>233928.0167774681</v>
+        <v>280469.2232471884</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.997864861497775e-06</v>
+        <v>5.875773698240569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.402199074074075</v>
       </c>
       <c r="AH3" t="n">
-        <v>211602.2551763277</v>
+        <v>253701.6342215863</v>
       </c>
     </row>
     <row r="4">
@@ -17816,28 +17816,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.0732808045505</v>
+        <v>181.8639516464153</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.6510806145444</v>
+        <v>248.8342819138043</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.8787669559649</v>
+        <v>225.0858872891313</v>
       </c>
       <c r="AD4" t="n">
-        <v>159073.2808045505</v>
+        <v>181863.9516464153</v>
       </c>
       <c r="AE4" t="n">
-        <v>217651.0806145445</v>
+        <v>248834.2819138043</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.215892414629708e-06</v>
+        <v>6.303104689252724e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.037615740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>196878.7669559649</v>
+        <v>225085.8872891313</v>
       </c>
     </row>
     <row r="5">
@@ -17922,28 +17922,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.1420460646436</v>
+        <v>176.2425772100425</v>
       </c>
       <c r="AB5" t="n">
-        <v>194.485018290056</v>
+        <v>241.1428694124257</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.9236411059456</v>
+        <v>218.1285324019165</v>
       </c>
       <c r="AD5" t="n">
-        <v>142142.0460646436</v>
+        <v>176242.5772100425</v>
       </c>
       <c r="AE5" t="n">
-        <v>194485.018290056</v>
+        <v>241142.8694124256</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.323198915105682e-06</v>
+        <v>6.51342394721686e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.872685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>175923.6411059456</v>
+        <v>218128.5324019165</v>
       </c>
     </row>
     <row r="6">
@@ -18028,28 +18028,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.7367341517323</v>
+        <v>172.8372652971312</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.8257202990543</v>
+        <v>236.4835714214239</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.7090199758378</v>
+        <v>213.9139112718087</v>
       </c>
       <c r="AD6" t="n">
-        <v>138736.7341517323</v>
+        <v>172837.2652971312</v>
       </c>
       <c r="AE6" t="n">
-        <v>189825.7202990543</v>
+        <v>236483.5714214239</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.388803097973622e-06</v>
+        <v>6.642007238992532e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.780092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>171709.0199758378</v>
+        <v>213913.9112718087</v>
       </c>
     </row>
     <row r="7">
@@ -18134,28 +18134,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.0093620162463</v>
+        <v>170.1098931616452</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.0940094201177</v>
+        <v>232.7518605424873</v>
       </c>
       <c r="AC7" t="n">
-        <v>168.3334583456966</v>
+        <v>210.5383496416674</v>
       </c>
       <c r="AD7" t="n">
-        <v>136009.3620162463</v>
+        <v>170109.8931616452</v>
       </c>
       <c r="AE7" t="n">
-        <v>186094.0094201177</v>
+        <v>232751.8605424873</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.437558425002611e-06</v>
+        <v>6.73756700617394e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.710648148148149</v>
       </c>
       <c r="AH7" t="n">
-        <v>168333.4583456966</v>
+        <v>210538.3496416674</v>
       </c>
     </row>
     <row r="8">
@@ -18240,28 +18240,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.4929595158156</v>
+        <v>168.5934906612145</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.0192006200726</v>
+        <v>230.6770517424422</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.4566663855147</v>
+        <v>208.6615576814855</v>
       </c>
       <c r="AD8" t="n">
-        <v>134492.9595158156</v>
+        <v>168593.4906612145</v>
       </c>
       <c r="AE8" t="n">
-        <v>184019.2006200725</v>
+        <v>230677.0517424422</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.457262070369092e-06</v>
+        <v>6.776185878789161e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.684606481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>166456.6663855147</v>
+        <v>208661.5576814855</v>
       </c>
     </row>
     <row r="9">
@@ -18346,28 +18346,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.6919992152737</v>
+        <v>166.7925303606726</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.5550472841113</v>
+        <v>228.212898406481</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.2276883854759</v>
+        <v>206.4325796814468</v>
       </c>
       <c r="AD9" t="n">
-        <v>132691.9992152737</v>
+        <v>166792.5303606726</v>
       </c>
       <c r="AE9" t="n">
-        <v>181555.0472841113</v>
+        <v>228212.898406481</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.48127588815949e-06</v>
+        <v>6.823252629788959e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.652777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>164227.6883854759</v>
+        <v>206432.5796814467</v>
       </c>
     </row>
     <row r="10">
@@ -18452,28 +18452,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>131.012278344038</v>
+        <v>153.8882005319233</v>
       </c>
       <c r="AB10" t="n">
-        <v>179.256779084033</v>
+        <v>210.5566250359422</v>
       </c>
       <c r="AC10" t="n">
-        <v>162.1487636767727</v>
+        <v>190.4613962606512</v>
       </c>
       <c r="AD10" t="n">
-        <v>131012.278344038</v>
+        <v>153888.2005319233</v>
       </c>
       <c r="AE10" t="n">
-        <v>179256.779084033</v>
+        <v>210556.6250359422</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.507920590416434e-06</v>
+        <v>6.875475877984539e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.618055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>162148.7636767727</v>
+        <v>190461.3962606512</v>
       </c>
     </row>
     <row r="11">
@@ -18558,28 +18558,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>129.6114412652392</v>
+        <v>152.4873634531245</v>
       </c>
       <c r="AB11" t="n">
-        <v>177.3400919922512</v>
+        <v>208.6399379441603</v>
       </c>
       <c r="AC11" t="n">
-        <v>160.4150025109426</v>
+        <v>188.7276350948212</v>
       </c>
       <c r="AD11" t="n">
-        <v>129611.4412652392</v>
+        <v>152487.3634531245</v>
       </c>
       <c r="AE11" t="n">
-        <v>177340.0919922512</v>
+        <v>208639.9379441603</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.522082585523592e-06</v>
+        <v>6.903233192676727e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.597800925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>160415.0025109426</v>
+        <v>188727.6350948212</v>
       </c>
     </row>
     <row r="12">
@@ -18664,28 +18664,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>128.2575225841478</v>
+        <v>151.1334447720331</v>
       </c>
       <c r="AB12" t="n">
-        <v>175.4876007221063</v>
+        <v>206.7874466740154</v>
       </c>
       <c r="AC12" t="n">
-        <v>158.739310407632</v>
+        <v>187.0519429915105</v>
       </c>
       <c r="AD12" t="n">
-        <v>128257.5225841478</v>
+        <v>151133.4447720331</v>
       </c>
       <c r="AE12" t="n">
-        <v>175487.6007221063</v>
+        <v>206787.4466740154</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.533445767368466e-06</v>
+        <v>6.925504872054255e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>158739.310407632</v>
+        <v>187051.9429915105</v>
       </c>
     </row>
     <row r="13">
@@ -18770,28 +18770,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.1723157635719</v>
+        <v>150.0482379514572</v>
       </c>
       <c r="AB13" t="n">
-        <v>174.002772874249</v>
+        <v>205.3026188261582</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.3961924456048</v>
+        <v>185.7088250294833</v>
       </c>
       <c r="AD13" t="n">
-        <v>127172.3157635719</v>
+        <v>150048.2379514572</v>
       </c>
       <c r="AE13" t="n">
-        <v>174002.772874249</v>
+        <v>205302.6188261582</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.543801376438917e-06</v>
+        <v>6.945801722718504e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.57175925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>157396.1924456047</v>
+        <v>185708.8250294833</v>
       </c>
     </row>
     <row r="14">
@@ -18876,28 +18876,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>125.7819398541492</v>
+        <v>148.6578620420345</v>
       </c>
       <c r="AB14" t="n">
-        <v>172.1003992159218</v>
+        <v>203.4002451678309</v>
       </c>
       <c r="AC14" t="n">
-        <v>155.6753786592295</v>
+        <v>183.988011243108</v>
       </c>
       <c r="AD14" t="n">
-        <v>125781.9398541492</v>
+        <v>148657.8620420345</v>
       </c>
       <c r="AE14" t="n">
-        <v>172100.3992159218</v>
+        <v>203400.2451678309</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.558970944320497e-06</v>
+        <v>6.97553386612397e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.55150462962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>155675.3786592295</v>
+        <v>183988.011243108</v>
       </c>
     </row>
     <row r="15">
@@ -18982,28 +18982,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>126.0572818031317</v>
+        <v>148.933203991017</v>
       </c>
       <c r="AB15" t="n">
-        <v>172.477134217749</v>
+        <v>203.776980169658</v>
       </c>
       <c r="AC15" t="n">
-        <v>156.0161586012332</v>
+        <v>184.3287911851118</v>
       </c>
       <c r="AD15" t="n">
-        <v>126057.2818031317</v>
+        <v>148933.203991017</v>
       </c>
       <c r="AE15" t="n">
-        <v>172477.1342177489</v>
+        <v>203776.980169658</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.555668344671002e-06</v>
+        <v>6.969060816452671e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.554398148148148</v>
       </c>
       <c r="AH15" t="n">
-        <v>156016.1586012332</v>
+        <v>184328.7911851118</v>
       </c>
     </row>
   </sheetData>
@@ -19279,28 +19279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.298414796253</v>
+        <v>304.2361361028179</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.4659717318041</v>
+        <v>416.2693033669274</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.3000965349593</v>
+        <v>376.5411452912238</v>
       </c>
       <c r="AD2" t="n">
-        <v>269298.414796253</v>
+        <v>304236.1361028178</v>
       </c>
       <c r="AE2" t="n">
-        <v>368465.9717318041</v>
+        <v>416269.3033669274</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.20737037339098e-06</v>
+        <v>4.24411781835199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.190393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>333300.0965349593</v>
+        <v>376541.1452912238</v>
       </c>
     </row>
     <row r="3">
@@ -19385,28 +19385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.7623433989571</v>
+        <v>220.6999751969703</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.1682334945354</v>
+        <v>301.9714426600859</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.9107740172471</v>
+        <v>273.1517119922781</v>
       </c>
       <c r="AD3" t="n">
-        <v>185762.3433989571</v>
+        <v>220699.9751969703</v>
       </c>
       <c r="AE3" t="n">
-        <v>254168.2334945354</v>
+        <v>301971.4426600859</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.835407199631448e-06</v>
+        <v>5.451646159295381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.596064814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>229910.7740172471</v>
+        <v>273151.7119922781</v>
       </c>
     </row>
     <row r="4">
@@ -19491,28 +19491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.4417778728529</v>
+        <v>194.7336219134127</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.5742039629671</v>
+        <v>266.4431325428824</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.1867711637723</v>
+        <v>241.0141739283529</v>
       </c>
       <c r="AD4" t="n">
-        <v>171441.7778728529</v>
+        <v>194733.6219134128</v>
       </c>
       <c r="AE4" t="n">
-        <v>234574.2039629671</v>
+        <v>266443.1325428825</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.065923205280621e-06</v>
+        <v>5.894859993631688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.17650462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>212186.7711637723</v>
+        <v>241014.1739283529</v>
       </c>
     </row>
     <row r="5">
@@ -19597,28 +19597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.9074826358988</v>
+        <v>187.7597735793405</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.2147635443822</v>
+        <v>256.9012055877349</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.2476001465308</v>
+        <v>232.382915089623</v>
       </c>
       <c r="AD5" t="n">
-        <v>152907.4826358988</v>
+        <v>187759.7735793405</v>
       </c>
       <c r="AE5" t="n">
-        <v>209214.7635443821</v>
+        <v>256901.2055877349</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.186967417621265e-06</v>
+        <v>6.127592073665054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.979745370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>189247.6001465308</v>
+        <v>232382.915089623</v>
       </c>
     </row>
     <row r="6">
@@ -19703,28 +19703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.5686919361277</v>
+        <v>183.4209828795694</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.2782386950219</v>
+        <v>250.9646807383748</v>
       </c>
       <c r="AC6" t="n">
-        <v>183.8776488968268</v>
+        <v>227.0129638399189</v>
       </c>
       <c r="AD6" t="n">
-        <v>148568.6919361278</v>
+        <v>183420.9828795694</v>
       </c>
       <c r="AE6" t="n">
-        <v>203278.2386950219</v>
+        <v>250964.6807383748</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266548365562486e-06</v>
+        <v>6.280602607479468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.858217592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>183877.6488968268</v>
+        <v>227012.9638399189</v>
       </c>
     </row>
     <row r="7">
@@ -19809,28 +19809,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>146.1195417427402</v>
+        <v>180.9718326861818</v>
       </c>
       <c r="AB7" t="n">
-        <v>199.9272033515498</v>
+        <v>247.6136453949027</v>
       </c>
       <c r="AC7" t="n">
-        <v>180.8464316633269</v>
+        <v>223.9817466064191</v>
       </c>
       <c r="AD7" t="n">
-        <v>146119.5417427401</v>
+        <v>180971.8326861818</v>
       </c>
       <c r="AE7" t="n">
-        <v>199927.2033515499</v>
+        <v>247613.6453949027</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.309437615245487e-06</v>
+        <v>6.363065899996953e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.794560185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>180846.4316633269</v>
+        <v>223981.7466064191</v>
       </c>
     </row>
     <row r="8">
@@ -19915,28 +19915,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.7652417001742</v>
+        <v>178.6175326436158</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.7059461689253</v>
+        <v>244.3923882122781</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.9326067451482</v>
+        <v>221.0679216882403</v>
       </c>
       <c r="AD8" t="n">
-        <v>143765.2417001742</v>
+        <v>178617.5326436159</v>
       </c>
       <c r="AE8" t="n">
-        <v>196705.9461689253</v>
+        <v>244392.3882122781</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.347829526726435e-06</v>
+        <v>6.436882146495982e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>177932.6067451482</v>
+        <v>221067.9216882403</v>
       </c>
     </row>
     <row r="9">
@@ -20021,28 +20021,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>142.229185571761</v>
+        <v>177.0814765152026</v>
       </c>
       <c r="AB9" t="n">
-        <v>194.6042464080176</v>
+        <v>242.2906884513704</v>
       </c>
       <c r="AC9" t="n">
-        <v>176.0314902596667</v>
+        <v>219.1668052027589</v>
       </c>
       <c r="AD9" t="n">
-        <v>142229.185571761</v>
+        <v>177081.4765152026</v>
       </c>
       <c r="AE9" t="n">
-        <v>194604.2464080176</v>
+        <v>242290.6884513704</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.370371063324534e-06</v>
+        <v>6.480222828368983e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.70775462962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>176031.4902596667</v>
+        <v>219166.8052027589</v>
       </c>
     </row>
     <row r="10">
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.6731374692526</v>
+        <v>175.5254284126943</v>
       </c>
       <c r="AB10" t="n">
-        <v>192.4751927461694</v>
+        <v>240.1616347895222</v>
       </c>
       <c r="AC10" t="n">
-        <v>174.1056304911591</v>
+        <v>217.2409454342512</v>
       </c>
       <c r="AD10" t="n">
-        <v>140673.1374692526</v>
+        <v>175525.4284126943</v>
       </c>
       <c r="AE10" t="n">
-        <v>192475.1927461694</v>
+        <v>240161.6347895222</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.392802908746972e-06</v>
+        <v>6.523352606680557e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH10" t="n">
-        <v>174105.6304911591</v>
+        <v>217240.9454342512</v>
       </c>
     </row>
     <row r="11">
@@ -20233,28 +20233,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>139.2553649711404</v>
+        <v>174.107655914582</v>
       </c>
       <c r="AB11" t="n">
-        <v>190.535333866545</v>
+        <v>238.2217759098978</v>
       </c>
       <c r="AC11" t="n">
-        <v>172.3509090203964</v>
+        <v>215.4862239634885</v>
       </c>
       <c r="AD11" t="n">
-        <v>139255.3649711404</v>
+        <v>174107.655914582</v>
       </c>
       <c r="AE11" t="n">
-        <v>190535.3338665451</v>
+        <v>238221.7759098978</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.409311430683779e-06</v>
+        <v>6.555093592675139e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.655671296296297</v>
       </c>
       <c r="AH11" t="n">
-        <v>172350.9090203964</v>
+        <v>215486.2239634885</v>
       </c>
     </row>
     <row r="12">
@@ -20339,28 +20339,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>138.2328084942461</v>
+        <v>173.0850994376878</v>
       </c>
       <c r="AB12" t="n">
-        <v>189.1362269828511</v>
+        <v>236.8226690262039</v>
       </c>
       <c r="AC12" t="n">
-        <v>171.0853309340229</v>
+        <v>214.220645877115</v>
       </c>
       <c r="AD12" t="n">
-        <v>138232.8084942461</v>
+        <v>173085.0994376878</v>
       </c>
       <c r="AE12" t="n">
-        <v>189136.2269828511</v>
+        <v>236822.6690262039</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.418580335027037e-06</v>
+        <v>6.57291494361562e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH12" t="n">
-        <v>171085.3309340229</v>
+        <v>214220.645877115</v>
       </c>
     </row>
     <row r="13">
@@ -20445,28 +20445,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>136.9609066099126</v>
+        <v>171.8131975533542</v>
       </c>
       <c r="AB13" t="n">
-        <v>187.3959547123559</v>
+        <v>235.0823967557087</v>
       </c>
       <c r="AC13" t="n">
-        <v>169.5111478065357</v>
+        <v>212.6464627496279</v>
       </c>
       <c r="AD13" t="n">
-        <v>136960.9066099126</v>
+        <v>171813.1975533542</v>
       </c>
       <c r="AE13" t="n">
-        <v>187395.9547123559</v>
+        <v>235082.3967557086</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.433059570214137e-06</v>
+        <v>6.600754213723825e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.623842592592593</v>
       </c>
       <c r="AH13" t="n">
-        <v>169511.1478065357</v>
+        <v>212646.4627496279</v>
       </c>
     </row>
     <row r="14">
@@ -20551,28 +20551,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>135.631787958217</v>
+        <v>159.0088833447975</v>
       </c>
       <c r="AB14" t="n">
-        <v>185.5773959365304</v>
+        <v>217.562969169095</v>
       </c>
       <c r="AC14" t="n">
-        <v>167.8661497279112</v>
+        <v>196.799064743204</v>
       </c>
       <c r="AD14" t="n">
-        <v>135631.7879582171</v>
+        <v>159008.8833447975</v>
       </c>
       <c r="AE14" t="n">
-        <v>185577.3959365304</v>
+        <v>217562.969169095</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.447867878928217e-06</v>
+        <v>6.629226194516307e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.603587962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>167866.1497279112</v>
+        <v>196799.064743204</v>
       </c>
     </row>
     <row r="15">
@@ -20657,28 +20657,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>134.0383345333078</v>
+        <v>157.4154299198883</v>
       </c>
       <c r="AB15" t="n">
-        <v>183.397162662367</v>
+        <v>215.3827358949315</v>
       </c>
       <c r="AC15" t="n">
-        <v>165.8939948574566</v>
+        <v>194.8269098727494</v>
       </c>
       <c r="AD15" t="n">
-        <v>134038.3345333078</v>
+        <v>157415.4299198883</v>
       </c>
       <c r="AE15" t="n">
-        <v>183397.162662367</v>
+        <v>215382.7358949315</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.459440297960331e-06</v>
+        <v>6.651476520246729e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.586226851851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>165893.9948574566</v>
+        <v>194826.9098727494</v>
       </c>
     </row>
     <row r="16">
@@ -20763,28 +20763,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>133.6638914564833</v>
+        <v>157.0409868430637</v>
       </c>
       <c r="AB16" t="n">
-        <v>182.8848331253932</v>
+        <v>214.8704063579578</v>
       </c>
       <c r="AC16" t="n">
-        <v>165.4305613324324</v>
+        <v>194.3634763477252</v>
       </c>
       <c r="AD16" t="n">
-        <v>133663.8914564833</v>
+        <v>157040.9868430637</v>
       </c>
       <c r="AE16" t="n">
-        <v>182884.8331253932</v>
+        <v>214870.4063579577</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.457794930325434e-06</v>
+        <v>6.648312966825341e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>165430.5613324324</v>
+        <v>194363.4763477252</v>
       </c>
     </row>
     <row r="17">
@@ -20869,28 +20869,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>132.22107010752</v>
+        <v>155.5981654941005</v>
       </c>
       <c r="AB17" t="n">
-        <v>180.9107013029571</v>
+        <v>212.8962745355217</v>
       </c>
       <c r="AC17" t="n">
-        <v>163.6448378804176</v>
+        <v>192.5777528957104</v>
       </c>
       <c r="AD17" t="n">
-        <v>132221.07010752</v>
+        <v>155598.1654941005</v>
       </c>
       <c r="AE17" t="n">
-        <v>180910.7013029571</v>
+        <v>212896.2745355217</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.468215592013119e-06</v>
+        <v>6.668348805160792e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>163644.8378804176</v>
+        <v>192577.7528957104</v>
       </c>
     </row>
     <row r="18">
@@ -20975,28 +20975,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>132.6162660366857</v>
+        <v>155.9933614232662</v>
       </c>
       <c r="AB18" t="n">
-        <v>181.4514258080553</v>
+        <v>213.4369990406199</v>
       </c>
       <c r="AC18" t="n">
-        <v>164.133956397661</v>
+        <v>193.0668714129538</v>
       </c>
       <c r="AD18" t="n">
-        <v>132616.2660366857</v>
+        <v>155993.3614232662</v>
       </c>
       <c r="AE18" t="n">
-        <v>181451.4258080553</v>
+        <v>213436.9990406199</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.46783167289831e-06</v>
+        <v>6.667610642695802e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.577546296296297</v>
       </c>
       <c r="AH18" t="n">
-        <v>164133.956397661</v>
+        <v>193066.8714129538</v>
       </c>
     </row>
   </sheetData>
@@ -21272,28 +21272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.3645887104275</v>
+        <v>395.6507591218851</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.2795549177027</v>
+        <v>541.3468235101529</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.9195412554013</v>
+        <v>489.681442459382</v>
       </c>
       <c r="AD2" t="n">
-        <v>347364.5887104275</v>
+        <v>395650.7591218851</v>
       </c>
       <c r="AE2" t="n">
-        <v>475279.5549177027</v>
+        <v>541346.823510153</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874436770886759e-06</v>
+        <v>3.491933534835503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.171296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>429919.5412554013</v>
+        <v>489681.4424593819</v>
       </c>
     </row>
     <row r="3">
@@ -21378,28 +21378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.1748524973302</v>
+        <v>264.3755925456678</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.7799701481173</v>
+        <v>361.7303491489635</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.5511449270636</v>
+        <v>327.2073123179192</v>
       </c>
       <c r="AD3" t="n">
-        <v>216174.8524973302</v>
+        <v>264375.5925456678</v>
       </c>
       <c r="AE3" t="n">
-        <v>295779.9701481173</v>
+        <v>361730.3491489635</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.555328257193398e-06</v>
+        <v>4.760382730640243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.99537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>267551.1449270636</v>
+        <v>327207.3123179192</v>
       </c>
     </row>
     <row r="4">
@@ -21484,28 +21484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.5260839809081</v>
+        <v>231.634058098424</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.527414104588</v>
+        <v>316.9319372635404</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.9949731796083</v>
+        <v>286.6843979879697</v>
       </c>
       <c r="AD4" t="n">
-        <v>195526.0839809081</v>
+        <v>231634.058098424</v>
       </c>
       <c r="AE4" t="n">
-        <v>267527.414104588</v>
+        <v>316931.9372635403</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812766859114498e-06</v>
+        <v>5.239971320221837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.445601851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>241994.9731796083</v>
+        <v>286684.3979879697</v>
       </c>
     </row>
     <row r="5">
@@ -21590,28 +21590,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.4762335817865</v>
+        <v>210.6620339690764</v>
       </c>
       <c r="AB5" t="n">
-        <v>255.1450095372943</v>
+        <v>288.2370886293755</v>
       </c>
       <c r="AC5" t="n">
-        <v>230.7943279253992</v>
+        <v>260.7281454339674</v>
       </c>
       <c r="AD5" t="n">
-        <v>186476.2335817865</v>
+        <v>210662.0339690764</v>
       </c>
       <c r="AE5" t="n">
-        <v>255145.0095372943</v>
+        <v>288237.0886293755</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.947547587161202e-06</v>
+        <v>5.491057593936567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>230794.3279253992</v>
+        <v>260728.1454339674</v>
       </c>
     </row>
     <row r="6">
@@ -21696,28 +21696,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.8819084037612</v>
+        <v>205.0677087910509</v>
       </c>
       <c r="AB6" t="n">
-        <v>247.4906070245154</v>
+        <v>280.5826861165967</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.8704508454162</v>
+        <v>253.8042683539844</v>
       </c>
       <c r="AD6" t="n">
-        <v>180881.9084037612</v>
+        <v>205067.7087910509</v>
       </c>
       <c r="AE6" t="n">
-        <v>247490.6070245155</v>
+        <v>280582.6861165967</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.036748501049142e-06</v>
+        <v>5.657232130939443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.043402777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>223870.4508454162</v>
+        <v>253804.2683539843</v>
       </c>
     </row>
     <row r="7">
@@ -21802,28 +21802,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.9158169889692</v>
+        <v>201.1090424525057</v>
       </c>
       <c r="AB7" t="n">
-        <v>225.6450963765671</v>
+        <v>275.1662641881687</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.1098450733343</v>
+        <v>248.9047821324079</v>
       </c>
       <c r="AD7" t="n">
-        <v>164915.8169889692</v>
+        <v>201109.0424525057</v>
       </c>
       <c r="AE7" t="n">
-        <v>225645.0963765671</v>
+        <v>275166.2641881687</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.097256895455027e-06</v>
+        <v>5.769954680372255e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.945023148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>204109.8450733343</v>
+        <v>248904.7821324079</v>
       </c>
     </row>
     <row r="8">
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>162.6747966023444</v>
+        <v>198.8680220658809</v>
       </c>
       <c r="AB8" t="n">
-        <v>222.5788334167468</v>
+        <v>272.1000012283483</v>
       </c>
       <c r="AC8" t="n">
-        <v>201.3362219468711</v>
+        <v>246.1311590059448</v>
       </c>
       <c r="AD8" t="n">
-        <v>162674.7966023444</v>
+        <v>198868.0220658809</v>
       </c>
       <c r="AE8" t="n">
-        <v>222578.8334167468</v>
+        <v>272100.0012283484</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.132725508098896e-06</v>
+        <v>5.836030015560342e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.890046296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>201336.2219468711</v>
+        <v>246131.1590059448</v>
       </c>
     </row>
     <row r="9">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>159.9808526265728</v>
+        <v>196.1740780901093</v>
       </c>
       <c r="AB9" t="n">
-        <v>218.8928604206777</v>
+        <v>268.4140282322792</v>
       </c>
       <c r="AC9" t="n">
-        <v>198.0020330402501</v>
+        <v>242.7969700993237</v>
       </c>
       <c r="AD9" t="n">
-        <v>159980.8526265728</v>
+        <v>196174.0780901093</v>
       </c>
       <c r="AE9" t="n">
-        <v>218892.8604206777</v>
+        <v>268414.0282322792</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.173117375930646e-06</v>
+        <v>5.911277001752148e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.826388888888888</v>
       </c>
       <c r="AH9" t="n">
-        <v>198002.0330402501</v>
+        <v>242796.9700993237</v>
       </c>
     </row>
     <row r="10">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>159.2984671285435</v>
+        <v>195.49169259208</v>
       </c>
       <c r="AB10" t="n">
-        <v>217.9591904775509</v>
+        <v>267.4803582891525</v>
       </c>
       <c r="AC10" t="n">
-        <v>197.1574712460811</v>
+        <v>241.9524083051547</v>
       </c>
       <c r="AD10" t="n">
-        <v>159298.4671285435</v>
+        <v>195491.69259208</v>
       </c>
       <c r="AE10" t="n">
-        <v>217959.1904775509</v>
+        <v>267480.3582891525</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.180264036687247e-06</v>
+        <v>5.924590688693031e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>197157.4712460811</v>
+        <v>241952.4083051547</v>
       </c>
     </row>
     <row r="11">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>157.4320844849462</v>
+        <v>193.6253099484828</v>
       </c>
       <c r="AB11" t="n">
-        <v>215.4055234055914</v>
+        <v>264.926691217193</v>
       </c>
       <c r="AC11" t="n">
-        <v>194.8475225753743</v>
+        <v>239.6424596344479</v>
       </c>
       <c r="AD11" t="n">
-        <v>157432.0844849462</v>
+        <v>193625.3099484828</v>
       </c>
       <c r="AE11" t="n">
-        <v>215405.5234055914</v>
+        <v>264926.691217193</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.209221247308435e-06</v>
+        <v>5.978535775779424e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.774305555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>194847.5225753743</v>
+        <v>239642.4596344479</v>
       </c>
     </row>
     <row r="12">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>156.2635766672771</v>
+        <v>192.4568021308137</v>
       </c>
       <c r="AB12" t="n">
-        <v>213.8067194585307</v>
+        <v>263.3278872701322</v>
       </c>
       <c r="AC12" t="n">
-        <v>193.4013062330852</v>
+        <v>238.1962432921588</v>
       </c>
       <c r="AD12" t="n">
-        <v>156263.5766672771</v>
+        <v>192456.8021308137</v>
       </c>
       <c r="AE12" t="n">
-        <v>213806.7194585307</v>
+        <v>263327.8872701323</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.223302815910329e-06</v>
+        <v>6.004768670048127e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.751157407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>193401.3062330852</v>
+        <v>238196.2432921588</v>
       </c>
     </row>
     <row r="13">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>155.2346585496841</v>
+        <v>191.4278840132206</v>
       </c>
       <c r="AB13" t="n">
-        <v>212.3989082973769</v>
+        <v>261.9200761089785</v>
       </c>
       <c r="AC13" t="n">
-        <v>192.1278545932761</v>
+        <v>236.9227916523496</v>
       </c>
       <c r="AD13" t="n">
-        <v>155234.6585496841</v>
+        <v>191427.8840132206</v>
       </c>
       <c r="AE13" t="n">
-        <v>212398.9082973769</v>
+        <v>261920.0761089785</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.234155152614798e-06</v>
+        <v>6.024985750217618e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.736689814814816</v>
       </c>
       <c r="AH13" t="n">
-        <v>192127.854593276</v>
+        <v>236922.7916523496</v>
       </c>
     </row>
     <row r="14">
@@ -22544,28 +22544,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>154.2371768943034</v>
+        <v>190.43040235784</v>
       </c>
       <c r="AB14" t="n">
-        <v>211.0341098907009</v>
+        <v>260.5552777023025</v>
       </c>
       <c r="AC14" t="n">
-        <v>190.8933106310262</v>
+        <v>235.6882476900998</v>
       </c>
       <c r="AD14" t="n">
-        <v>154237.1768943034</v>
+        <v>190430.40235784</v>
       </c>
       <c r="AE14" t="n">
-        <v>211034.1098907009</v>
+        <v>260555.2777023025</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.246648574381892e-06</v>
+        <v>6.048260047388347e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.719328703703703</v>
       </c>
       <c r="AH14" t="n">
-        <v>190893.3106310262</v>
+        <v>235688.2476900998</v>
       </c>
     </row>
     <row r="15">
@@ -22650,28 +22650,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>153.2138408510229</v>
+        <v>189.4070663145595</v>
       </c>
       <c r="AB15" t="n">
-        <v>209.6339363698853</v>
+        <v>259.1551041814868</v>
       </c>
       <c r="AC15" t="n">
-        <v>189.6267677058809</v>
+        <v>234.4217047649545</v>
       </c>
       <c r="AD15" t="n">
-        <v>153213.8408510229</v>
+        <v>189407.0663145595</v>
       </c>
       <c r="AE15" t="n">
-        <v>209633.9363698853</v>
+        <v>259155.1041814868</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.259406687288119e-06</v>
+        <v>6.072027444075405e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.699074074074074</v>
       </c>
       <c r="AH15" t="n">
-        <v>189626.7677058809</v>
+        <v>234421.7047649545</v>
       </c>
     </row>
     <row r="16">
@@ -22756,28 +22756,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>151.7148165420063</v>
+        <v>187.9080420055429</v>
       </c>
       <c r="AB16" t="n">
-        <v>207.5829051780046</v>
+        <v>257.1040729896062</v>
       </c>
       <c r="AC16" t="n">
-        <v>187.7714840523123</v>
+        <v>232.5664211113859</v>
       </c>
       <c r="AD16" t="n">
-        <v>151714.8165420063</v>
+        <v>187908.0420055428</v>
       </c>
       <c r="AE16" t="n">
-        <v>207582.9051780046</v>
+        <v>257104.0729896062</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.27354119411784e-06</v>
+        <v>6.098358958247374e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH16" t="n">
-        <v>187771.4840523123</v>
+        <v>232566.4211113859</v>
       </c>
     </row>
     <row r="17">
@@ -22862,28 +22862,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>151.570097384668</v>
+        <v>187.7633228482045</v>
       </c>
       <c r="AB17" t="n">
-        <v>207.3848940423758</v>
+        <v>256.9060618539774</v>
       </c>
       <c r="AC17" t="n">
-        <v>187.5923708215574</v>
+        <v>232.3873078806311</v>
       </c>
       <c r="AD17" t="n">
-        <v>151570.097384668</v>
+        <v>187763.3228482045</v>
       </c>
       <c r="AE17" t="n">
-        <v>207384.8940423758</v>
+        <v>256906.0618539774</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.27354119411784e-06</v>
+        <v>6.098358958247374e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH17" t="n">
-        <v>187592.3708215574</v>
+        <v>232387.3078806311</v>
       </c>
     </row>
     <row r="18">
@@ -22968,28 +22968,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>150.1447623126902</v>
+        <v>186.3379877762268</v>
       </c>
       <c r="AB18" t="n">
-        <v>205.4346877155514</v>
+        <v>254.9558555271529</v>
       </c>
       <c r="AC18" t="n">
-        <v>185.8282894494328</v>
+        <v>230.6232265085064</v>
       </c>
       <c r="AD18" t="n">
-        <v>150144.7623126902</v>
+        <v>186337.9877762268</v>
       </c>
       <c r="AE18" t="n">
-        <v>205434.6877155514</v>
+        <v>254955.8555271529</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.287463948036255e-06</v>
+        <v>6.124295992806279e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.658564814814816</v>
       </c>
       <c r="AH18" t="n">
-        <v>185828.2894494328</v>
+        <v>230623.2265085064</v>
       </c>
     </row>
     <row r="19">
@@ -23074,28 +23074,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>149.8306951234604</v>
+        <v>186.0239205869969</v>
       </c>
       <c r="AB19" t="n">
-        <v>205.0049671315808</v>
+        <v>254.5261349431824</v>
       </c>
       <c r="AC19" t="n">
-        <v>185.4395807948796</v>
+        <v>230.2345178539532</v>
       </c>
       <c r="AD19" t="n">
-        <v>149830.6951234604</v>
+        <v>186023.9205869969</v>
       </c>
       <c r="AE19" t="n">
-        <v>205004.9671315808</v>
+        <v>254526.1349431824</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.287411009808428e-06</v>
+        <v>6.124197372903014e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.658564814814816</v>
       </c>
       <c r="AH19" t="n">
-        <v>185439.5807948796</v>
+        <v>230234.5178539532</v>
       </c>
     </row>
     <row r="20">
@@ -23180,28 +23180,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>148.2226932590054</v>
+        <v>184.4159187225419</v>
       </c>
       <c r="AB20" t="n">
-        <v>202.8048280405991</v>
+        <v>252.3259958522007</v>
       </c>
       <c r="AC20" t="n">
-        <v>183.4494198908259</v>
+        <v>228.2443569498995</v>
       </c>
       <c r="AD20" t="n">
-        <v>148222.6932590054</v>
+        <v>184415.9187225419</v>
       </c>
       <c r="AE20" t="n">
-        <v>202804.8280405991</v>
+        <v>252325.9958522007</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.298528037652029e-06</v>
+        <v>6.144907552588832e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>183449.4198908259</v>
+        <v>228244.3569498995</v>
       </c>
     </row>
     <row r="21">
@@ -23286,28 +23286,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>148.2914640780679</v>
+        <v>184.4846895416044</v>
       </c>
       <c r="AB21" t="n">
-        <v>202.8989233091947</v>
+        <v>252.4200911207963</v>
       </c>
       <c r="AC21" t="n">
-        <v>183.5345348390503</v>
+        <v>228.3294718981238</v>
       </c>
       <c r="AD21" t="n">
-        <v>148291.4640780679</v>
+        <v>184484.6895416044</v>
       </c>
       <c r="AE21" t="n">
-        <v>202898.9233091947</v>
+        <v>252420.0911207963</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.300857319676402e-06</v>
+        <v>6.149246828332527e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH21" t="n">
-        <v>183534.5348390503</v>
+        <v>228329.4718981239</v>
       </c>
     </row>
     <row r="22">
@@ -23392,28 +23392,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>147.5908010851888</v>
+        <v>183.7840265487253</v>
       </c>
       <c r="AB22" t="n">
-        <v>201.9402452912683</v>
+        <v>251.4614131028699</v>
       </c>
       <c r="AC22" t="n">
-        <v>182.6673517056414</v>
+        <v>227.4622887647151</v>
       </c>
       <c r="AD22" t="n">
-        <v>147590.8010851888</v>
+        <v>183784.0265487253</v>
       </c>
       <c r="AE22" t="n">
-        <v>201940.2452912683</v>
+        <v>251461.4131028699</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.302657219422509e-06</v>
+        <v>6.152599905043565e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.638310185185186</v>
       </c>
       <c r="AH22" t="n">
-        <v>182667.3517056414</v>
+        <v>227462.288764715</v>
       </c>
     </row>
     <row r="23">
@@ -23498,28 +23498,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>146.506462391283</v>
+        <v>182.6996878548195</v>
       </c>
       <c r="AB23" t="n">
-        <v>200.4566052526203</v>
+        <v>249.9777730642219</v>
       </c>
       <c r="AC23" t="n">
-        <v>181.3253081899796</v>
+        <v>226.1202452490532</v>
       </c>
       <c r="AD23" t="n">
-        <v>146506.462391283</v>
+        <v>182699.6878548195</v>
       </c>
       <c r="AE23" t="n">
-        <v>200456.6052526203</v>
+        <v>249977.7730642218</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.301492578410323e-06</v>
+        <v>6.150430267171718e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.638310185185186</v>
       </c>
       <c r="AH23" t="n">
-        <v>181325.3081899796</v>
+        <v>226120.2452490532</v>
       </c>
     </row>
     <row r="24">
@@ -23604,28 +23604,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>146.0213551633316</v>
+        <v>182.2145806268681</v>
       </c>
       <c r="AB24" t="n">
-        <v>199.7928601419169</v>
+        <v>249.3140279535185</v>
       </c>
       <c r="AC24" t="n">
-        <v>180.7249099810695</v>
+        <v>225.5198470401431</v>
       </c>
       <c r="AD24" t="n">
-        <v>146021.3551633316</v>
+        <v>182214.5806268681</v>
       </c>
       <c r="AE24" t="n">
-        <v>199792.860141917</v>
+        <v>249314.0279535186</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.314674197139163e-06</v>
+        <v>6.174986623084902e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.620949074074074</v>
       </c>
       <c r="AH24" t="n">
-        <v>180724.9099810695</v>
+        <v>225519.8470401431</v>
       </c>
     </row>
     <row r="25">
@@ -23710,28 +23710,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>146.0922127369493</v>
+        <v>182.2854382004858</v>
       </c>
       <c r="AB25" t="n">
-        <v>199.8898106001563</v>
+        <v>249.4109784117578</v>
       </c>
       <c r="AC25" t="n">
-        <v>180.8126076236452</v>
+        <v>225.6075446827188</v>
       </c>
       <c r="AD25" t="n">
-        <v>146092.2127369493</v>
+        <v>182285.4382004858</v>
       </c>
       <c r="AE25" t="n">
-        <v>199889.8106001563</v>
+        <v>249410.9784117578</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.313191926760017e-06</v>
+        <v>6.17222526579346e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>4.623842592592593</v>
       </c>
       <c r="AH25" t="n">
-        <v>180812.6076236452</v>
+        <v>225607.5446827188</v>
       </c>
     </row>
     <row r="26">
@@ -23816,28 +23816,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>146.3632721129899</v>
+        <v>182.5564975765265</v>
       </c>
       <c r="AB26" t="n">
-        <v>200.2606859967505</v>
+        <v>249.7818538083521</v>
       </c>
       <c r="AC26" t="n">
-        <v>181.1480871929156</v>
+        <v>225.9430242519892</v>
       </c>
       <c r="AD26" t="n">
-        <v>146363.2721129899</v>
+        <v>182556.4975765265</v>
       </c>
       <c r="AE26" t="n">
-        <v>200260.6859967505</v>
+        <v>249781.8538083521</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.313986000177417e-06</v>
+        <v>6.173704564342447e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4.620949074074074</v>
       </c>
       <c r="AH26" t="n">
-        <v>181148.0871929156</v>
+        <v>225943.0242519892</v>
       </c>
     </row>
   </sheetData>
@@ -24113,28 +24113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.0534375322363</v>
+        <v>236.3296366535424</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.8266713169115</v>
+        <v>323.3566349969557</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.3112837386893</v>
+        <v>292.4959315868298</v>
       </c>
       <c r="AD2" t="n">
-        <v>203053.4375322363</v>
+        <v>236329.6366535424</v>
       </c>
       <c r="AE2" t="n">
-        <v>277826.6713169115</v>
+        <v>323356.6349969557</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.621124818194991e-06</v>
+        <v>5.254037765103296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.322337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>251311.2837386893</v>
+        <v>292495.9315868298</v>
       </c>
     </row>
     <row r="3">
@@ -24219,28 +24219,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.9179353292148</v>
+        <v>179.1589918159836</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.7020418480601</v>
+        <v>245.1332365394042</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.211180310351</v>
+        <v>221.7380644908128</v>
       </c>
       <c r="AD3" t="n">
-        <v>156917.9353292148</v>
+        <v>179158.9918159836</v>
       </c>
       <c r="AE3" t="n">
-        <v>214702.0418480601</v>
+        <v>245133.2365394041</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168693467806333e-06</v>
+        <v>6.351637674910639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.228587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>194211.180310351</v>
+        <v>221738.0644908128</v>
       </c>
     </row>
     <row r="4">
@@ -24325,28 +24325,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.506335180234</v>
+        <v>169.7824447929891</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.7739900279938</v>
+        <v>232.3038312384897</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.9485425587161</v>
+        <v>210.1330796256301</v>
       </c>
       <c r="AD4" t="n">
-        <v>136506.335180234</v>
+        <v>169782.4447929891</v>
       </c>
       <c r="AE4" t="n">
-        <v>186773.9900279939</v>
+        <v>232303.8312384897</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.358432505162506e-06</v>
+        <v>6.731969073424572e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.933449074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>168948.5425587161</v>
+        <v>210133.0796256301</v>
       </c>
     </row>
     <row r="5">
@@ -24431,28 +24431,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.492865305241</v>
+        <v>164.768974917996</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.914339366351</v>
+        <v>225.4441805768467</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.743567328638</v>
+        <v>203.9281043955521</v>
       </c>
       <c r="AD5" t="n">
-        <v>131492.865305241</v>
+        <v>164768.974917996</v>
       </c>
       <c r="AE5" t="n">
-        <v>179914.339366351</v>
+        <v>225444.1805768468</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.465758480413177e-06</v>
+        <v>6.947103706933511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.780092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>162743.567328638</v>
+        <v>203928.1043955521</v>
       </c>
     </row>
     <row r="6">
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.3813902062944</v>
+        <v>161.6574998190495</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.657081867381</v>
+        <v>221.1869230778768</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.8926165102699</v>
+        <v>200.077153577184</v>
       </c>
       <c r="AD6" t="n">
-        <v>128381.3902062944</v>
+        <v>161657.4998190495</v>
       </c>
       <c r="AE6" t="n">
-        <v>175657.081867381</v>
+        <v>221186.9230778768</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.52532038770277e-06</v>
+        <v>7.066495392552133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.701967592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>158892.6165102699</v>
+        <v>200077.153577184</v>
       </c>
     </row>
     <row r="7">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.9234391613685</v>
+        <v>159.1995487741236</v>
       </c>
       <c r="AB7" t="n">
-        <v>172.294004810568</v>
+        <v>217.8238460210639</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.8505068076499</v>
+        <v>197.0350438745639</v>
       </c>
       <c r="AD7" t="n">
-        <v>125923.4391613685</v>
+        <v>159199.5487741236</v>
       </c>
       <c r="AE7" t="n">
-        <v>172294.004810568</v>
+        <v>217823.8460210639</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.570106360299367e-06</v>
+        <v>7.156268756161518e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH7" t="n">
-        <v>155850.5068076499</v>
+        <v>197035.0438745639</v>
       </c>
     </row>
     <row r="8">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.1562877274075</v>
+        <v>146.4825955601969</v>
       </c>
       <c r="AB8" t="n">
-        <v>169.8761102574047</v>
+        <v>200.423949601398</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.6633727171034</v>
+        <v>181.2957691482775</v>
       </c>
       <c r="AD8" t="n">
-        <v>124156.2877274075</v>
+        <v>146482.5955601969</v>
       </c>
       <c r="AE8" t="n">
-        <v>169876.1102574047</v>
+        <v>200423.949601398</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.593186599374084e-06</v>
+        <v>7.202533034338734e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.612268518518518</v>
       </c>
       <c r="AH8" t="n">
-        <v>153663.3727171034</v>
+        <v>181295.7691482775</v>
       </c>
     </row>
     <row r="9">
@@ -24855,28 +24855,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>122.218129320461</v>
+        <v>144.5444371532504</v>
       </c>
       <c r="AB9" t="n">
-        <v>167.2242364195077</v>
+        <v>197.7720757635009</v>
       </c>
       <c r="AC9" t="n">
-        <v>151.2645899963661</v>
+        <v>178.8969864275401</v>
       </c>
       <c r="AD9" t="n">
-        <v>122218.129320461</v>
+        <v>144544.4371532504</v>
       </c>
       <c r="AE9" t="n">
-        <v>167224.2364195077</v>
+        <v>197772.0757635009</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.620504897236715e-06</v>
+        <v>7.257292490146505e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.577546296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>151264.5899963661</v>
+        <v>178896.9864275401</v>
       </c>
     </row>
     <row r="10">
@@ -24961,28 +24961,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.5865910368226</v>
+        <v>142.912898869612</v>
       </c>
       <c r="AB10" t="n">
-        <v>164.9918937614456</v>
+        <v>195.5397331054388</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.2452989884761</v>
+        <v>176.8776954196502</v>
       </c>
       <c r="AD10" t="n">
-        <v>120586.5910368226</v>
+        <v>142912.898869612</v>
       </c>
       <c r="AE10" t="n">
-        <v>164991.8937614456</v>
+        <v>195539.7331054388</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.635109018735605e-06</v>
+        <v>7.28656641306261e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.560185185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>149245.2989884761</v>
+        <v>176877.6954196502</v>
       </c>
     </row>
     <row r="11">
@@ -25067,28 +25067,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.0599104591649</v>
+        <v>141.3862182919543</v>
       </c>
       <c r="AB11" t="n">
-        <v>162.9030220427018</v>
+        <v>193.450861386695</v>
       </c>
       <c r="AC11" t="n">
-        <v>147.3557862548187</v>
+        <v>174.9881826859927</v>
       </c>
       <c r="AD11" t="n">
-        <v>119059.9104591649</v>
+        <v>141386.2182919543</v>
       </c>
       <c r="AE11" t="n">
-        <v>162903.0220427018</v>
+        <v>193450.861386695</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.643699678440835e-06</v>
+        <v>7.303786367719141e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.548611111111112</v>
       </c>
       <c r="AH11" t="n">
-        <v>147355.7862548187</v>
+        <v>174988.1826859927</v>
       </c>
     </row>
     <row r="12">
@@ -25173,28 +25173,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.9638881971676</v>
+        <v>141.290196029957</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.771640147634</v>
+        <v>193.3194794916272</v>
       </c>
       <c r="AC12" t="n">
-        <v>147.2369432634205</v>
+        <v>174.8693396945945</v>
       </c>
       <c r="AD12" t="n">
-        <v>118963.8881971676</v>
+        <v>141290.196029957</v>
       </c>
       <c r="AE12" t="n">
-        <v>162771.640147634</v>
+        <v>193319.4794916273</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.654695722863529e-06</v>
+        <v>7.325827909679502e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.534143518518518</v>
       </c>
       <c r="AH12" t="n">
-        <v>147236.9432634205</v>
+        <v>174869.3396945946</v>
       </c>
     </row>
   </sheetData>
@@ -25470,28 +25470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.5075216999812</v>
+        <v>188.4432687205969</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.1404958143716</v>
+        <v>257.836393793679</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.7032274419827</v>
+        <v>233.2288502457369</v>
       </c>
       <c r="AD2" t="n">
-        <v>156507.5216999812</v>
+        <v>188443.2687205969</v>
       </c>
       <c r="AE2" t="n">
-        <v>214140.4958143716</v>
+        <v>257836.393793679</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.006020335748184e-06</v>
+        <v>6.288782532635267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.74363425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>193703.2274419827</v>
+        <v>233228.8502457369</v>
       </c>
     </row>
     <row r="3">
@@ -25576,28 +25576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.1746700114659</v>
+        <v>156.02507617751</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.9012617094226</v>
+        <v>213.4803925665324</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.686123749841</v>
+        <v>193.1061235216564</v>
       </c>
       <c r="AD3" t="n">
-        <v>124174.6700114659</v>
+        <v>156025.07617751</v>
       </c>
       <c r="AE3" t="n">
-        <v>169901.2617094226</v>
+        <v>213480.3925665324</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.476180815744045e-06</v>
+        <v>7.272387659643654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>153686.1237498409</v>
+        <v>193106.1235216564</v>
       </c>
     </row>
     <row r="4">
@@ -25682,28 +25682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.3990923629525</v>
+        <v>149.2494985289966</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.6306174533419</v>
+        <v>204.2097483104517</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.3002567701267</v>
+        <v>184.7202565419421</v>
       </c>
       <c r="AD4" t="n">
-        <v>117399.0923629525</v>
+        <v>149249.4985289966</v>
       </c>
       <c r="AE4" t="n">
-        <v>160630.6174533419</v>
+        <v>204209.7483104517</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.643818291798907e-06</v>
+        <v>7.623095743248978e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.736689814814816</v>
       </c>
       <c r="AH4" t="n">
-        <v>145300.2567701267</v>
+        <v>184720.2565419422</v>
       </c>
     </row>
     <row r="5">
@@ -25788,28 +25788,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.5549245065425</v>
+        <v>145.4053306725866</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.3708573994878</v>
+        <v>198.9499882565977</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.5424808336912</v>
+        <v>179.9624806055067</v>
       </c>
       <c r="AD5" t="n">
-        <v>113554.9245065425</v>
+        <v>145405.3306725866</v>
       </c>
       <c r="AE5" t="n">
-        <v>155370.8573994878</v>
+        <v>198949.9882565977</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.728412576868585e-06</v>
+        <v>7.800072277965117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>140542.4808336912</v>
+        <v>179962.4806055067</v>
       </c>
     </row>
     <row r="6">
@@ -25894,28 +25894,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.1495693191933</v>
+        <v>132.5254081875087</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.0797443153767</v>
+        <v>181.327110090446</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.5654669632204</v>
+        <v>164.021505197662</v>
       </c>
       <c r="AD6" t="n">
-        <v>111149.5693191933</v>
+        <v>132525.4081875087</v>
       </c>
       <c r="AE6" t="n">
-        <v>152079.7443153767</v>
+        <v>181327.110090446</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.771604581375247e-06</v>
+        <v>7.890432652531044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.577546296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>137565.4669632204</v>
+        <v>164021.505197662</v>
       </c>
     </row>
     <row r="7">
@@ -26000,28 +26000,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.7830050212095</v>
+        <v>130.1588438895249</v>
       </c>
       <c r="AB7" t="n">
-        <v>148.8417066374286</v>
+        <v>178.0890724124979</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.6364630566402</v>
+        <v>161.0925012910819</v>
       </c>
       <c r="AD7" t="n">
-        <v>108783.0050212095</v>
+        <v>130158.8438895249</v>
       </c>
       <c r="AE7" t="n">
-        <v>148841.7066374286</v>
+        <v>178089.0724124979</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.808651867008723e-06</v>
+        <v>7.967937890936349e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>134636.4630566402</v>
+        <v>161092.5012910819</v>
       </c>
     </row>
     <row r="8">
@@ -26106,28 +26106,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.3165050004318</v>
+        <v>129.6923438687472</v>
       </c>
       <c r="AB8" t="n">
-        <v>148.2034207284725</v>
+        <v>177.4507865035417</v>
       </c>
       <c r="AC8" t="n">
-        <v>134.0590942589947</v>
+        <v>160.5151324934364</v>
       </c>
       <c r="AD8" t="n">
-        <v>108316.5050004318</v>
+        <v>129692.3438687472</v>
       </c>
       <c r="AE8" t="n">
-        <v>148203.4207284725</v>
+        <v>177450.7865035417</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.815393160529791e-06</v>
+        <v>7.982041098568876e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.525462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>134059.0942589947</v>
+        <v>160515.1324934364</v>
       </c>
     </row>
   </sheetData>
@@ -49096,28 +49096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.8182631400543</v>
+        <v>164.4438265481436</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.096051273253</v>
+        <v>224.9992982326812</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.621621116707</v>
+        <v>203.5256809979173</v>
       </c>
       <c r="AD2" t="n">
-        <v>133818.2631400542</v>
+        <v>164443.8265481436</v>
       </c>
       <c r="AE2" t="n">
-        <v>183096.051273253</v>
+        <v>224999.2982326812</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.321882015541693e-06</v>
+        <v>7.221292386268925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.376157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>165621.621116707</v>
+        <v>203525.6809979173</v>
       </c>
     </row>
     <row r="3">
@@ -49202,28 +49202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.7175831479807</v>
+        <v>139.4283979020907</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.7521935442677</v>
+        <v>190.7720851563452</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.5554929674582</v>
+        <v>172.5650650993806</v>
       </c>
       <c r="AD3" t="n">
-        <v>108717.5831479807</v>
+        <v>139428.3979020907</v>
       </c>
       <c r="AE3" t="n">
-        <v>148752.1935442677</v>
+        <v>190772.0851563452</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.728014614640302e-06</v>
+        <v>8.104166080146383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.788773148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>134555.4929674582</v>
+        <v>172565.0650993806</v>
       </c>
     </row>
     <row r="4">
@@ -49308,28 +49308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.4391945884489</v>
+        <v>124.0553058488082</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.5300694510516</v>
+        <v>169.7379423960993</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.0226382613814</v>
+        <v>153.538391402561</v>
       </c>
       <c r="AD4" t="n">
-        <v>103439.1945884489</v>
+        <v>124055.3058488082</v>
       </c>
       <c r="AE4" t="n">
-        <v>141530.0694510516</v>
+        <v>169737.9423960993</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.869337157101298e-06</v>
+        <v>8.411380904486054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.615162037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>128022.6382613814</v>
+        <v>153538.391402561</v>
       </c>
     </row>
     <row r="5">
@@ -49414,28 +49414,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.3538117165346</v>
+        <v>120.9699229768939</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.3085124882149</v>
+        <v>165.5163854332626</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.2039807700841</v>
+        <v>149.7197339112637</v>
       </c>
       <c r="AD5" t="n">
-        <v>100353.8117165346</v>
+        <v>120969.9229768939</v>
       </c>
       <c r="AE5" t="n">
-        <v>137308.5124882149</v>
+        <v>165516.3854332626</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.925681035383782e-06</v>
+        <v>8.533864369386545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.548611111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>124203.9807700841</v>
+        <v>149719.7339112638</v>
       </c>
     </row>
     <row r="6">
@@ -49520,28 +49520,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.3456459823503</v>
+        <v>120.9617572427097</v>
       </c>
       <c r="AB6" t="n">
-        <v>137.2973397704572</v>
+        <v>165.5052127155049</v>
       </c>
       <c r="AC6" t="n">
-        <v>124.1938743608282</v>
+        <v>149.7096275020079</v>
       </c>
       <c r="AD6" t="n">
-        <v>100345.6459823503</v>
+        <v>120961.7572427097</v>
       </c>
       <c r="AE6" t="n">
-        <v>137297.3397704572</v>
+        <v>165505.2127155049</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.93401227696991e-06</v>
+        <v>8.55197528697862e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>124193.8743608282</v>
+        <v>149709.6275020079</v>
       </c>
     </row>
   </sheetData>
@@ -49817,28 +49817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.54938457565983</v>
+        <v>116.0011757442095</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.7889303826214</v>
+        <v>158.7179262638501</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.356442991755</v>
+        <v>143.5701101432805</v>
       </c>
       <c r="AD2" t="n">
-        <v>87549.38457565983</v>
+        <v>116001.1757442095</v>
       </c>
       <c r="AE2" t="n">
-        <v>119788.9303826214</v>
+        <v>158717.9262638501</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.972020267254242e-06</v>
+        <v>9.447557305324312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.826388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>108356.442991755</v>
+        <v>143570.1101432805</v>
       </c>
     </row>
     <row r="3">
@@ -49923,28 +49923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.7496439433248</v>
+        <v>112.2014351118745</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.5899576167375</v>
+        <v>153.5189534979662</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.6536528898413</v>
+        <v>138.8673200413667</v>
       </c>
       <c r="AD3" t="n">
-        <v>83749.6439433248</v>
+        <v>112201.4351118745</v>
       </c>
       <c r="AE3" t="n">
-        <v>114589.9576167375</v>
+        <v>153518.9534979661</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129663775117987e-06</v>
+        <v>9.822516639402588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>103653.6528898413</v>
+        <v>138867.3200413667</v>
       </c>
     </row>
   </sheetData>
@@ -50220,28 +50220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.7516782896668</v>
+        <v>287.7593626397125</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.7753115670923</v>
+        <v>393.7250550107639</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.2065800772929</v>
+        <v>356.1484883571213</v>
       </c>
       <c r="AD2" t="n">
-        <v>241751.6782896668</v>
+        <v>287759.3626397125</v>
       </c>
       <c r="AE2" t="n">
-        <v>330775.3115670923</v>
+        <v>393725.0550107639</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.311886611786405e-06</v>
+        <v>4.486396748118239e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.93287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>299206.5800772929</v>
+        <v>356148.4883571212</v>
       </c>
     </row>
     <row r="3">
@@ -50326,28 +50326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.4192311262233</v>
+        <v>212.9890000296836</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.1210633277363</v>
+        <v>291.420946251994</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.8224916698722</v>
+        <v>263.6081401536564</v>
       </c>
       <c r="AD3" t="n">
-        <v>178419.2311262233</v>
+        <v>212989.0000296836</v>
       </c>
       <c r="AE3" t="n">
-        <v>244121.0633277363</v>
+        <v>291420.946251994</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.913621906587912e-06</v>
+        <v>5.654111140364942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.500578703703705</v>
       </c>
       <c r="AH3" t="n">
-        <v>220822.4916698722</v>
+        <v>263608.1401536564</v>
       </c>
     </row>
     <row r="4">
@@ -50432,28 +50432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.6499352009296</v>
+        <v>188.6965373117875</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.6495493011805</v>
+        <v>258.1829270535674</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.0184344205815</v>
+        <v>233.5423108576642</v>
       </c>
       <c r="AD4" t="n">
-        <v>165649.9352009296</v>
+        <v>188696.5373117875</v>
       </c>
       <c r="AE4" t="n">
-        <v>226649.5493011806</v>
+        <v>258182.9270535674</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.133366352365099e-06</v>
+        <v>6.080542420309955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.115740740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>205018.4344205815</v>
+        <v>233542.3108576642</v>
       </c>
     </row>
     <row r="5">
@@ -50538,28 +50538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.0329421219974</v>
+        <v>182.517370170886</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.5452021637155</v>
+        <v>249.7283179657756</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.2145723432448</v>
+        <v>225.8945977950902</v>
       </c>
       <c r="AD5" t="n">
-        <v>148032.9421219974</v>
+        <v>182517.370170886</v>
       </c>
       <c r="AE5" t="n">
-        <v>202545.2021637155</v>
+        <v>249728.3179657756</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.243210878701414e-06</v>
+        <v>6.293704312957034e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.942129629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>183214.5723432447</v>
+        <v>225894.5977950902</v>
       </c>
     </row>
     <row r="6">
@@ -50644,28 +50644,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>143.7945123534401</v>
+        <v>178.2789404023287</v>
       </c>
       <c r="AB6" t="n">
-        <v>196.7459955680538</v>
+        <v>243.9291113701139</v>
       </c>
       <c r="AC6" t="n">
-        <v>177.9688338858336</v>
+        <v>220.648859337679</v>
       </c>
       <c r="AD6" t="n">
-        <v>143794.5123534401</v>
+        <v>178278.9404023287</v>
       </c>
       <c r="AE6" t="n">
-        <v>196745.9955680538</v>
+        <v>243929.1113701139</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.324860314818271e-06</v>
+        <v>6.452151428318503e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.820601851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>177968.8338858336</v>
+        <v>220648.859337679</v>
       </c>
     </row>
     <row r="7">
@@ -50750,28 +50750,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>141.2414028143336</v>
+        <v>175.7258308632223</v>
       </c>
       <c r="AB7" t="n">
-        <v>193.2527184614065</v>
+        <v>240.4358342634666</v>
       </c>
       <c r="AC7" t="n">
-        <v>174.8089502433984</v>
+        <v>217.4889756952438</v>
       </c>
       <c r="AD7" t="n">
-        <v>141241.4028143336</v>
+        <v>175725.8308632222</v>
       </c>
       <c r="AE7" t="n">
-        <v>193252.7184614065</v>
+        <v>240435.8342634666</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.369507157091125e-06</v>
+        <v>6.538792116908289e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.756944444444446</v>
       </c>
       <c r="AH7" t="n">
-        <v>174808.9502433984</v>
+        <v>217488.9756952438</v>
       </c>
     </row>
     <row r="8">
@@ -50856,28 +50856,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.0647015557863</v>
+        <v>173.549129604675</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.2744597701815</v>
+        <v>237.4575755722416</v>
       </c>
       <c r="AC8" t="n">
-        <v>172.1149323816506</v>
+        <v>214.794957833496</v>
       </c>
       <c r="AD8" t="n">
-        <v>139064.7015557863</v>
+        <v>173549.129604675</v>
       </c>
       <c r="AE8" t="n">
-        <v>190274.4597701815</v>
+        <v>237457.5755722416</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.40595581988956e-06</v>
+        <v>6.609523597171414e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.704861111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>172114.9323816506</v>
+        <v>214794.957833496</v>
       </c>
     </row>
     <row r="9">
@@ -50962,28 +50962,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.4647487488628</v>
+        <v>171.9491767977515</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.0853337548137</v>
+        <v>235.2684495568738</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.1347334807311</v>
+        <v>212.8147589325766</v>
       </c>
       <c r="AD9" t="n">
-        <v>137464.7487488628</v>
+        <v>171949.1767977515</v>
       </c>
       <c r="AE9" t="n">
-        <v>188085.3337548137</v>
+        <v>235268.4495568738</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.428500813444214e-06</v>
+        <v>6.65327392006973e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>170134.7334807311</v>
+        <v>212814.7589325766</v>
       </c>
     </row>
     <row r="10">
@@ -51068,28 +51068,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.0565331350037</v>
+        <v>170.5409611838923</v>
       </c>
       <c r="AB10" t="n">
-        <v>186.1585510258443</v>
+        <v>233.3416668279044</v>
       </c>
       <c r="AC10" t="n">
-        <v>168.3918401911574</v>
+        <v>211.0718656430028</v>
       </c>
       <c r="AD10" t="n">
-        <v>136056.5331350037</v>
+        <v>170540.9611838923</v>
       </c>
       <c r="AE10" t="n">
-        <v>186158.5510258443</v>
+        <v>233341.6668279044</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.44301380683812e-06</v>
+        <v>6.681437518593954e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.655671296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>168391.8401911574</v>
+        <v>211071.8656430028</v>
       </c>
     </row>
     <row r="11">
@@ -51174,28 +51174,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>134.1957250806322</v>
+        <v>157.3275785375106</v>
       </c>
       <c r="AB11" t="n">
-        <v>183.612511352797</v>
+        <v>215.2625337578331</v>
       </c>
       <c r="AC11" t="n">
-        <v>166.0887909711158</v>
+        <v>194.7181796589107</v>
       </c>
       <c r="AD11" t="n">
-        <v>134195.7250806322</v>
+        <v>157327.5785375106</v>
       </c>
       <c r="AE11" t="n">
-        <v>183612.511352797</v>
+        <v>215262.5337578331</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.469657890129984e-06</v>
+        <v>6.7331424456556e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.618055555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>166088.7909711158</v>
+        <v>194718.1796589108</v>
       </c>
     </row>
     <row r="12">
@@ -51280,28 +51280,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>133.0182569482285</v>
+        <v>156.150110405107</v>
       </c>
       <c r="AB12" t="n">
-        <v>182.0014475078153</v>
+        <v>213.6514699128514</v>
       </c>
       <c r="AC12" t="n">
-        <v>164.6314847983563</v>
+        <v>193.2608734861513</v>
       </c>
       <c r="AD12" t="n">
-        <v>133018.2569482285</v>
+        <v>156150.110405107</v>
       </c>
       <c r="AE12" t="n">
-        <v>182001.4475078153</v>
+        <v>213651.4699128514</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.482342911073513e-06</v>
+        <v>6.757758720701581e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.603587962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>164631.4847983563</v>
+        <v>193260.8734861513</v>
       </c>
     </row>
     <row r="13">
@@ -51386,28 +51386,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>131.6229082745286</v>
+        <v>154.754761731407</v>
       </c>
       <c r="AB13" t="n">
-        <v>180.092269894021</v>
+        <v>211.7422922990571</v>
       </c>
       <c r="AC13" t="n">
-        <v>162.9045164164744</v>
+        <v>191.5339051042694</v>
       </c>
       <c r="AD13" t="n">
-        <v>131622.9082745285</v>
+        <v>154754.761731407</v>
       </c>
       <c r="AE13" t="n">
-        <v>180092.269894021</v>
+        <v>211742.2922990571</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.492646028521094e-06</v>
+        <v>6.777752725760763e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>162904.5164164744</v>
+        <v>191533.9051042694</v>
       </c>
     </row>
     <row r="14">
@@ -51492,28 +51492,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>130.9476969775822</v>
+        <v>154.0795504344606</v>
       </c>
       <c r="AB14" t="n">
-        <v>179.1684160093194</v>
+        <v>210.8184384143555</v>
       </c>
       <c r="AC14" t="n">
-        <v>162.0688338498913</v>
+        <v>190.6982225376863</v>
       </c>
       <c r="AD14" t="n">
-        <v>130947.6969775822</v>
+        <v>154079.5504344606</v>
       </c>
       <c r="AE14" t="n">
-        <v>179168.4160093194</v>
+        <v>210818.4384143555</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.493587711298561e-06</v>
+        <v>6.779580134825311e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>162068.8338498913</v>
+        <v>190698.2225376863</v>
       </c>
     </row>
     <row r="15">
@@ -51598,28 +51598,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>129.70714120908</v>
+        <v>152.8389946659585</v>
       </c>
       <c r="AB15" t="n">
-        <v>177.4710328773977</v>
+        <v>209.1210552824338</v>
       </c>
       <c r="AC15" t="n">
-        <v>160.5334465817875</v>
+        <v>189.1628352695824</v>
       </c>
       <c r="AD15" t="n">
-        <v>129707.14120908</v>
+        <v>152838.9946659585</v>
       </c>
       <c r="AE15" t="n">
-        <v>177471.0328773977</v>
+        <v>209121.0552824338</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.508100704692467e-06</v>
+        <v>6.807743733349535e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.56886574074074</v>
       </c>
       <c r="AH15" t="n">
-        <v>160533.4465817875</v>
+        <v>189162.8352695825</v>
       </c>
     </row>
     <row r="16">
@@ -51704,28 +51704,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>129.2581256769843</v>
+        <v>152.3899791338627</v>
       </c>
       <c r="AB16" t="n">
-        <v>176.8566700172174</v>
+        <v>208.5066924222535</v>
       </c>
       <c r="AC16" t="n">
-        <v>159.9777176507189</v>
+        <v>188.6071063385139</v>
       </c>
       <c r="AD16" t="n">
-        <v>129258.1256769843</v>
+        <v>152389.9791338627</v>
       </c>
       <c r="AE16" t="n">
-        <v>176856.6700172174</v>
+        <v>208506.6924222535</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.503835435641586e-06</v>
+        <v>6.799466645233637e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>159977.7176507189</v>
+        <v>188607.1063385139</v>
       </c>
     </row>
     <row r="17">
@@ -51810,28 +51810,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>129.6401133154233</v>
+        <v>152.7719667723018</v>
       </c>
       <c r="AB17" t="n">
-        <v>177.3793223562346</v>
+        <v>209.0293447612707</v>
       </c>
       <c r="AC17" t="n">
-        <v>160.4504887840476</v>
+        <v>189.0798774718426</v>
       </c>
       <c r="AD17" t="n">
-        <v>129640.1133154233</v>
+        <v>152771.9667723018</v>
       </c>
       <c r="AE17" t="n">
-        <v>177379.3223562346</v>
+        <v>209029.3447612707</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.503281504596017e-06</v>
+        <v>6.798391698725078e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>160450.4887840477</v>
+        <v>189079.8774718426</v>
       </c>
     </row>
   </sheetData>
@@ -52107,28 +52107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.6271717089941</v>
+        <v>365.574494525492</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.5915090540943</v>
+        <v>500.1951514182199</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.1147053829845</v>
+        <v>452.4572281951683</v>
       </c>
       <c r="AD2" t="n">
-        <v>317627.1717089941</v>
+        <v>365574.494525492</v>
       </c>
       <c r="AE2" t="n">
-        <v>434591.5090540943</v>
+        <v>500195.1514182199</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.950932925577992e-06</v>
+        <v>3.660715381331369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>393114.7053829845</v>
+        <v>452457.2281951684</v>
       </c>
     </row>
     <row r="3">
@@ -52213,28 +52213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.171475848647</v>
+        <v>244.1319679610199</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.8293971333361</v>
+        <v>334.032128906405</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.6456792315839</v>
+        <v>302.1525713407145</v>
       </c>
       <c r="AD3" t="n">
-        <v>208171.475848647</v>
+        <v>244131.96796102</v>
       </c>
       <c r="AE3" t="n">
-        <v>284829.3971333361</v>
+        <v>334032.128906405</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.623609516678538e-06</v>
+        <v>4.92292050966697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.888310185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>257645.6792315839</v>
+        <v>302152.5713407145</v>
       </c>
     </row>
     <row r="4">
@@ -52319,28 +52319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.5239519011494</v>
+        <v>225.3138518129301</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.3150321976873</v>
+        <v>308.2843521959094</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.5663694757492</v>
+        <v>278.8621263022288</v>
       </c>
       <c r="AD4" t="n">
-        <v>189523.9519011494</v>
+        <v>225313.8518129301</v>
       </c>
       <c r="AE4" t="n">
-        <v>259315.0321976873</v>
+        <v>308284.3521959094</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.87299414083516e-06</v>
+        <v>5.390863880527464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.376157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>234566.3694757492</v>
+        <v>278862.1263022288</v>
       </c>
     </row>
     <row r="5">
@@ -52425,28 +52425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.3970421152297</v>
+        <v>205.3707930320293</v>
       </c>
       <c r="AB5" t="n">
-        <v>248.1954356946417</v>
+        <v>280.9973793462361</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.508011656499</v>
+        <v>254.1793838438127</v>
       </c>
       <c r="AD5" t="n">
-        <v>181397.0421152296</v>
+        <v>205370.7930320293</v>
       </c>
       <c r="AE5" t="n">
-        <v>248195.4356946417</v>
+        <v>280997.3793462361</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.998647266962019e-06</v>
+        <v>5.626638429972156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.150462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>224508.011656499</v>
+        <v>254179.3838438127</v>
       </c>
     </row>
     <row r="6">
@@ -52531,28 +52531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.8846096986138</v>
+        <v>199.8583606154135</v>
       </c>
       <c r="AB6" t="n">
-        <v>240.6530824708771</v>
+        <v>273.4550261224715</v>
       </c>
       <c r="AC6" t="n">
-        <v>217.6854900386489</v>
+        <v>247.3568622259626</v>
       </c>
       <c r="AD6" t="n">
-        <v>175884.6096986138</v>
+        <v>199858.3606154135</v>
       </c>
       <c r="AE6" t="n">
-        <v>240653.0824708771</v>
+        <v>273455.0261224714</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.089177301758602e-06</v>
+        <v>5.796508283777678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>217685.4900386489</v>
+        <v>247356.8622259626</v>
       </c>
     </row>
     <row r="7">
@@ -52637,28 +52637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.7478388735413</v>
+        <v>196.6229901313427</v>
       </c>
       <c r="AB7" t="n">
-        <v>219.9422848408246</v>
+        <v>269.0282494916958</v>
       </c>
       <c r="AC7" t="n">
-        <v>198.951301866615</v>
+        <v>243.3525709438068</v>
       </c>
       <c r="AD7" t="n">
-        <v>160747.8388735413</v>
+        <v>196622.9901313427</v>
       </c>
       <c r="AE7" t="n">
-        <v>219942.2848408246</v>
+        <v>269028.2494916958</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.137431518419044e-06</v>
+        <v>5.887052120947601e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.921875000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>198951.301866615</v>
+        <v>243352.5709438068</v>
       </c>
     </row>
     <row r="8">
@@ -52743,28 +52743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>157.909477353415</v>
+        <v>193.7846286112163</v>
       </c>
       <c r="AB8" t="n">
-        <v>216.0587133893169</v>
+        <v>265.1446780401882</v>
       </c>
       <c r="AC8" t="n">
-        <v>195.4383730238112</v>
+        <v>239.839642101003</v>
       </c>
       <c r="AD8" t="n">
-        <v>157909.477353415</v>
+        <v>193784.6286112163</v>
       </c>
       <c r="AE8" t="n">
-        <v>216058.7133893169</v>
+        <v>265144.6780401882</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.184885056705696e-06</v>
+        <v>5.976093571438821e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.849537037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>195438.3730238112</v>
+        <v>239839.642101003</v>
       </c>
     </row>
     <row r="9">
@@ -52849,28 +52849,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>155.9683111423903</v>
+        <v>191.8434624001916</v>
       </c>
       <c r="AB9" t="n">
-        <v>213.4027241411852</v>
+        <v>262.4886887920565</v>
       </c>
       <c r="AC9" t="n">
-        <v>193.035867661816</v>
+        <v>237.4371367390078</v>
       </c>
       <c r="AD9" t="n">
-        <v>155968.3111423904</v>
+        <v>191843.4624001916</v>
       </c>
       <c r="AE9" t="n">
-        <v>213402.7241411852</v>
+        <v>262488.6887920565</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.214296642302935e-06</v>
+        <v>6.031281242103234e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.80613425925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>193035.867661816</v>
+        <v>237437.1367390078</v>
       </c>
     </row>
     <row r="10">
@@ -52955,28 +52955,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>154.4874836613586</v>
+        <v>190.3626349191599</v>
       </c>
       <c r="AB10" t="n">
-        <v>211.3765906521408</v>
+        <v>260.4625553030122</v>
       </c>
       <c r="AC10" t="n">
-        <v>191.2031055092692</v>
+        <v>235.604374586461</v>
       </c>
       <c r="AD10" t="n">
-        <v>154487.4836613586</v>
+        <v>190362.6349191599</v>
       </c>
       <c r="AE10" t="n">
-        <v>211376.5906521408</v>
+        <v>260462.5553030121</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.23554130848751e-06</v>
+        <v>6.071144568644859e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.774305555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>191203.1055092692</v>
+        <v>235604.374586461</v>
       </c>
     </row>
     <row r="11">
@@ -53061,28 +53061,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>153.2668955831087</v>
+        <v>189.14204684091</v>
       </c>
       <c r="AB11" t="n">
-        <v>209.7065281949347</v>
+        <v>258.7924928458059</v>
       </c>
       <c r="AC11" t="n">
-        <v>189.6924314690308</v>
+        <v>234.0937005462226</v>
       </c>
       <c r="AD11" t="n">
-        <v>153266.8955831087</v>
+        <v>189142.04684091</v>
       </c>
       <c r="AE11" t="n">
-        <v>209706.5281949347</v>
+        <v>258792.4928458059</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.247231212744851e-06</v>
+        <v>6.093079414153943e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.756944444444446</v>
       </c>
       <c r="AH11" t="n">
-        <v>189692.4314690308</v>
+        <v>234093.7005462226</v>
       </c>
     </row>
     <row r="12">
@@ -53167,28 +53167,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>151.4205282170457</v>
+        <v>187.295679474847</v>
       </c>
       <c r="AB12" t="n">
-        <v>207.1802469087091</v>
+        <v>256.2662115595804</v>
       </c>
       <c r="AC12" t="n">
-        <v>187.4072549231038</v>
+        <v>231.8085240002956</v>
       </c>
       <c r="AD12" t="n">
-        <v>151420.5282170457</v>
+        <v>187295.679474847</v>
       </c>
       <c r="AE12" t="n">
-        <v>207180.2469087091</v>
+        <v>256266.2115595804</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.277923883740155e-06</v>
+        <v>6.150670903504283e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.710648148148149</v>
       </c>
       <c r="AH12" t="n">
-        <v>187407.2549231038</v>
+        <v>231808.5240002956</v>
       </c>
     </row>
     <row r="13">
@@ -53273,28 +53273,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>150.3058218625537</v>
+        <v>186.180973120355</v>
       </c>
       <c r="AB13" t="n">
-        <v>205.6550564971204</v>
+        <v>254.7410211479917</v>
       </c>
       <c r="AC13" t="n">
-        <v>186.0276265437784</v>
+        <v>230.4288956209702</v>
       </c>
       <c r="AD13" t="n">
-        <v>150305.8218625537</v>
+        <v>186180.973120355</v>
       </c>
       <c r="AE13" t="n">
-        <v>205655.0564971204</v>
+        <v>254741.0211479916</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.28929351664798e-06</v>
+        <v>6.172004794341888e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.696180555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>186027.6265437784</v>
+        <v>230428.8956209702</v>
       </c>
     </row>
     <row r="14">
@@ -53379,28 +53379,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>149.2503044256866</v>
+        <v>185.1254556834878</v>
       </c>
       <c r="AB14" t="n">
-        <v>204.2108509738566</v>
+        <v>253.2968156247279</v>
       </c>
       <c r="AC14" t="n">
-        <v>184.7212539686992</v>
+        <v>229.1225230458911</v>
       </c>
       <c r="AD14" t="n">
-        <v>149250.3044256865</v>
+        <v>185125.4556834878</v>
       </c>
       <c r="AE14" t="n">
-        <v>204210.8509738566</v>
+        <v>253296.8156247279</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.300342878206289e-06</v>
+        <v>6.192737730508009e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH14" t="n">
-        <v>184721.2539686993</v>
+        <v>229122.5230458911</v>
       </c>
     </row>
     <row r="15">
@@ -53485,28 +53485,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>148.6483830260752</v>
+        <v>184.5235342838765</v>
       </c>
       <c r="AB15" t="n">
-        <v>203.3872755600108</v>
+        <v>252.473240210882</v>
       </c>
       <c r="AC15" t="n">
-        <v>183.9762794364553</v>
+        <v>228.3775485136471</v>
       </c>
       <c r="AD15" t="n">
-        <v>148648.3830260752</v>
+        <v>184523.5342838765</v>
       </c>
       <c r="AE15" t="n">
-        <v>203387.2755600108</v>
+        <v>252473.240210882</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.300769906672311e-06</v>
+        <v>6.193539003403317e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH15" t="n">
-        <v>183976.2794364553</v>
+        <v>228377.5485136471</v>
       </c>
     </row>
     <row r="16">
@@ -53591,28 +53591,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>147.8158787492553</v>
+        <v>183.6910300070566</v>
       </c>
       <c r="AB16" t="n">
-        <v>202.2482064809697</v>
+        <v>251.334171131841</v>
       </c>
       <c r="AC16" t="n">
-        <v>182.9459215116241</v>
+        <v>227.3471905888159</v>
       </c>
       <c r="AD16" t="n">
-        <v>147815.8787492553</v>
+        <v>183691.0300070566</v>
       </c>
       <c r="AE16" t="n">
-        <v>202248.2064809697</v>
+        <v>251334.171131841</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.313260489303443e-06</v>
+        <v>6.216976235591108e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>182945.9215116241</v>
+        <v>227347.1905888159</v>
       </c>
     </row>
     <row r="17">
@@ -53697,28 +53697,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>146.7485428430169</v>
+        <v>182.6236941008183</v>
       </c>
       <c r="AB17" t="n">
-        <v>200.7878304065183</v>
+        <v>249.8737950573895</v>
       </c>
       <c r="AC17" t="n">
-        <v>181.6249216800671</v>
+        <v>226.0261907572589</v>
       </c>
       <c r="AD17" t="n">
-        <v>146748.5428430169</v>
+        <v>182623.6941008182</v>
       </c>
       <c r="AE17" t="n">
-        <v>200787.8304065182</v>
+        <v>249873.7950573895</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.314007789118981e-06</v>
+        <v>6.218378463157899e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>181624.9216800671</v>
+        <v>226026.1907572589</v>
       </c>
     </row>
     <row r="18">
@@ -53803,28 +53803,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>145.8834154310559</v>
+        <v>181.7585666888572</v>
       </c>
       <c r="AB18" t="n">
-        <v>199.604124914746</v>
+        <v>248.6900895656173</v>
       </c>
       <c r="AC18" t="n">
-        <v>180.5541873790881</v>
+        <v>224.95545645628</v>
       </c>
       <c r="AD18" t="n">
-        <v>145883.4154310559</v>
+        <v>181758.5666888572</v>
       </c>
       <c r="AE18" t="n">
-        <v>199604.124914746</v>
+        <v>248690.0895656173</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.329807842361781e-06</v>
+        <v>6.248025560284334e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.638310185185186</v>
       </c>
       <c r="AH18" t="n">
-        <v>180554.1873790881</v>
+        <v>224955.45645628</v>
       </c>
     </row>
     <row r="19">
@@ -53909,28 +53909,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>144.9112139226315</v>
+        <v>180.7863651804328</v>
       </c>
       <c r="AB19" t="n">
-        <v>198.273915920417</v>
+        <v>247.3598805712882</v>
       </c>
       <c r="AC19" t="n">
-        <v>179.3509316642173</v>
+        <v>223.7522007414091</v>
       </c>
       <c r="AD19" t="n">
-        <v>144911.2139226315</v>
+        <v>180786.3651804328</v>
       </c>
       <c r="AE19" t="n">
-        <v>198273.9159204169</v>
+        <v>247359.8805712882</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.326124721842344e-06</v>
+        <v>6.241114581562293e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>179350.9316642173</v>
+        <v>223752.2007414091</v>
       </c>
     </row>
     <row r="20">
@@ -54015,28 +54015,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>144.3407688803186</v>
+        <v>180.2159201381199</v>
       </c>
       <c r="AB20" t="n">
-        <v>197.4934078472657</v>
+        <v>246.5793724981369</v>
       </c>
       <c r="AC20" t="n">
-        <v>178.6449141861174</v>
+        <v>223.0461832633092</v>
       </c>
       <c r="AD20" t="n">
-        <v>144340.7688803186</v>
+        <v>180215.9201381199</v>
       </c>
       <c r="AE20" t="n">
-        <v>197493.4078472657</v>
+        <v>246579.3724981369</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.339629497080277e-06</v>
+        <v>6.266454836876442e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.623842592592593</v>
       </c>
       <c r="AH20" t="n">
-        <v>178644.9141861174</v>
+        <v>223046.1832633092</v>
       </c>
     </row>
     <row r="21">
@@ -54121,28 +54121,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>143.5916045750878</v>
+        <v>167.6506068379081</v>
       </c>
       <c r="AB21" t="n">
-        <v>196.4683681940529</v>
+        <v>229.3869564982965</v>
       </c>
       <c r="AC21" t="n">
-        <v>177.7177028787547</v>
+        <v>207.4945873167806</v>
       </c>
       <c r="AD21" t="n">
-        <v>143591.6045750878</v>
+        <v>167650.6068379081</v>
       </c>
       <c r="AE21" t="n">
-        <v>196468.3681940529</v>
+        <v>229386.9564982965</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.343686267507483e-06</v>
+        <v>6.274066929381878e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.618055555555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>177717.7028787548</v>
+        <v>207494.5873167806</v>
       </c>
     </row>
     <row r="22">
@@ -54227,28 +54227,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>142.6761671007669</v>
+        <v>178.5513183585682</v>
       </c>
       <c r="AB22" t="n">
-        <v>195.2158262554366</v>
+        <v>244.3017909063079</v>
       </c>
       <c r="AC22" t="n">
-        <v>176.5847017848059</v>
+        <v>220.9859708619977</v>
       </c>
       <c r="AD22" t="n">
-        <v>142676.1671007669</v>
+        <v>178551.3183585682</v>
       </c>
       <c r="AE22" t="n">
-        <v>195215.8262554366</v>
+        <v>244301.7909063079</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.342191667876408e-06</v>
+        <v>6.271262474248298e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>4.620949074074074</v>
       </c>
       <c r="AH22" t="n">
-        <v>176584.7017848059</v>
+        <v>220985.9708619977</v>
       </c>
     </row>
     <row r="23">
@@ -54333,28 +54333,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>141.9070945053142</v>
+        <v>165.9660967681344</v>
       </c>
       <c r="AB23" t="n">
-        <v>194.1635472012504</v>
+        <v>227.082135505494</v>
       </c>
       <c r="AC23" t="n">
-        <v>175.632850766668</v>
+        <v>205.4097352046939</v>
       </c>
       <c r="AD23" t="n">
-        <v>141907.0945053142</v>
+        <v>165966.0967681344</v>
       </c>
       <c r="AE23" t="n">
-        <v>194163.5472012504</v>
+        <v>227082.135505494</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.35548292888133e-06</v>
+        <v>6.296202093114791e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>4.603587962962963</v>
       </c>
       <c r="AH23" t="n">
-        <v>175632.850766668</v>
+        <v>205409.7352046939</v>
       </c>
     </row>
     <row r="24">
@@ -54439,28 +54439,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>142.3349731204125</v>
+        <v>166.3939753832327</v>
       </c>
       <c r="AB24" t="n">
-        <v>194.7489895990998</v>
+        <v>227.6675779033434</v>
       </c>
       <c r="AC24" t="n">
-        <v>176.1624193637404</v>
+        <v>205.9393038017663</v>
       </c>
       <c r="AD24" t="n">
-        <v>142334.9731204125</v>
+        <v>166393.9753832327</v>
       </c>
       <c r="AE24" t="n">
-        <v>194748.9895990998</v>
+        <v>227667.5779033434</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.354575493391034e-06</v>
+        <v>6.29449938821226e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>4.603587962962963</v>
       </c>
       <c r="AH24" t="n">
-        <v>176162.4193637405</v>
+        <v>205939.3038017663</v>
       </c>
     </row>
   </sheetData>
@@ -54736,28 +54736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.55515870200942</v>
+        <v>102.9503967371376</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.377901394401</v>
+        <v>140.8612746666485</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.51165957714126</v>
+        <v>127.4176723125422</v>
       </c>
       <c r="AD2" t="n">
-        <v>75555.15870200942</v>
+        <v>102950.3967371376</v>
       </c>
       <c r="AE2" t="n">
-        <v>103377.901394401</v>
+        <v>140861.2746666485</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.127988060112732e-06</v>
+        <v>1.032378486726134e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>93511.65957714125</v>
+        <v>127417.6723125422</v>
       </c>
     </row>
   </sheetData>
@@ -55033,28 +55033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.2242799644987</v>
+        <v>200.666120887527</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.1718813787694</v>
+        <v>274.5602393626447</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.2046000683106</v>
+        <v>248.3565954656706</v>
       </c>
       <c r="AD2" t="n">
-        <v>168224.2799644987</v>
+        <v>200666.120887527</v>
       </c>
       <c r="AE2" t="n">
-        <v>230171.8813787694</v>
+        <v>274560.2393626447</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864323245278122e-06</v>
+        <v>5.898453477707444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>208204.6000683106</v>
+        <v>248356.5954656706</v>
       </c>
     </row>
     <row r="3">
@@ -55139,28 +55139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.2046075895131</v>
+        <v>163.8325910467497</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.5706177284021</v>
+        <v>224.1629788538673</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.0010710540355</v>
+        <v>202.7691787668355</v>
       </c>
       <c r="AD3" t="n">
-        <v>142204.6075895131</v>
+        <v>163832.5910467497</v>
       </c>
       <c r="AE3" t="n">
-        <v>194570.6177284021</v>
+        <v>224162.9788538673</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.368311981229712e-06</v>
+        <v>6.93630914473094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.049189814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>176001.0710540355</v>
+        <v>202769.1787668355</v>
       </c>
     </row>
     <row r="4">
@@ -55245,28 +55245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.7871374069825</v>
+        <v>156.1436374754392</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.3710225032368</v>
+        <v>213.6426133649145</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.206489829298</v>
+        <v>193.2528621947193</v>
       </c>
       <c r="AD4" t="n">
-        <v>123787.1374069825</v>
+        <v>156143.6374754392</v>
       </c>
       <c r="AE4" t="n">
-        <v>169371.0225032368</v>
+        <v>213642.6133649145</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.547673888775298e-06</v>
+        <v>7.305666153956265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.794560185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>153206.489829298</v>
+        <v>193252.8621947193</v>
       </c>
     </row>
     <row r="5">
@@ -55351,28 +55351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.7005522711616</v>
+        <v>152.0570523396183</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.7795764329972</v>
+        <v>208.0511672946749</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.1486835243564</v>
+        <v>188.1950558897777</v>
       </c>
       <c r="AD5" t="n">
-        <v>119700.5522711616</v>
+        <v>152057.0523396183</v>
       </c>
       <c r="AE5" t="n">
-        <v>163779.5764329972</v>
+        <v>208051.1672946748</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.637266660685974e-06</v>
+        <v>7.490163067118963e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>148148.6835243564</v>
+        <v>188195.0558897777</v>
       </c>
     </row>
     <row r="6">
@@ -55457,28 +55457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.8505166067025</v>
+        <v>138.5637514099596</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.8800319021866</v>
+        <v>189.5890376803011</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.6213060505201</v>
+        <v>171.4949260140322</v>
       </c>
       <c r="AD6" t="n">
-        <v>116850.5166067025</v>
+        <v>138563.7514099596</v>
       </c>
       <c r="AE6" t="n">
-        <v>159880.0319021866</v>
+        <v>189589.0376803011</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.690587293312603e-06</v>
+        <v>7.59996536386343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>144621.3060505201</v>
+        <v>171494.9260140322</v>
       </c>
     </row>
     <row r="7">
@@ -55563,28 +55563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.7212241551694</v>
+        <v>136.4344589584266</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.9666400322474</v>
+        <v>186.6756458103619</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.9859642116757</v>
+        <v>168.8595841751879</v>
       </c>
       <c r="AD7" t="n">
-        <v>114721.2241551694</v>
+        <v>136434.4589584266</v>
       </c>
       <c r="AE7" t="n">
-        <v>156966.6400322474</v>
+        <v>186675.6458103619</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.724743067905846e-06</v>
+        <v>7.670301785482542e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.565972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>141985.9642116757</v>
+        <v>168859.5841751879</v>
       </c>
     </row>
     <row r="8">
@@ -55669,28 +55669,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.7622570938949</v>
+        <v>134.475491897152</v>
       </c>
       <c r="AB8" t="n">
-        <v>154.2862948754857</v>
+        <v>183.9953006536001</v>
       </c>
       <c r="AC8" t="n">
-        <v>139.5614274347864</v>
+        <v>166.4350473982986</v>
       </c>
       <c r="AD8" t="n">
-        <v>112762.2570938949</v>
+        <v>134475.491897152</v>
       </c>
       <c r="AE8" t="n">
-        <v>154286.2948754857</v>
+        <v>183995.3006536001</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.747905503688527e-06</v>
+        <v>7.717999806339565e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>139561.4274347864</v>
+        <v>166435.0473982986</v>
       </c>
     </row>
     <row r="9">
@@ -55775,28 +55775,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>112.0405836788009</v>
+        <v>133.7538184820581</v>
       </c>
       <c r="AB9" t="n">
-        <v>153.2988694709706</v>
+        <v>183.007875249085</v>
       </c>
       <c r="AC9" t="n">
-        <v>138.6682405250177</v>
+        <v>165.5418604885298</v>
       </c>
       <c r="AD9" t="n">
-        <v>112040.5836788009</v>
+        <v>133753.8184820581</v>
       </c>
       <c r="AE9" t="n">
-        <v>153298.8694709706</v>
+        <v>183007.875249085</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.758134599694076e-06</v>
+        <v>7.739064414535305e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.525462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>138668.2405250177</v>
+        <v>165541.8604885298</v>
       </c>
     </row>
   </sheetData>
@@ -56072,28 +56072,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.7638553634206</v>
+        <v>249.6331182043125</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.2176257375886</v>
+        <v>341.5590453628943</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.0424698778202</v>
+        <v>308.9611294546925</v>
       </c>
       <c r="AD2" t="n">
-        <v>215763.8553634206</v>
+        <v>249633.1182043125</v>
       </c>
       <c r="AE2" t="n">
-        <v>295217.6257375886</v>
+        <v>341559.0453628943</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.509198054687664e-06</v>
+        <v>4.971183319263577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>267042.4698778202</v>
+        <v>308961.1294546925</v>
       </c>
     </row>
     <row r="3">
@@ -56178,28 +56178,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.9488621645443</v>
+        <v>197.5621919502723</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.3220661267535</v>
+        <v>270.3133068550147</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.9130829736778</v>
+        <v>244.5149842359602</v>
       </c>
       <c r="AD3" t="n">
-        <v>163948.8621645443</v>
+        <v>197562.1919502723</v>
       </c>
       <c r="AE3" t="n">
-        <v>224322.0661267535</v>
+        <v>270313.3068550147</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.080916216521104e-06</v>
+        <v>6.103862257905673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.315393518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>202913.0829736778</v>
+        <v>244514.9842359602</v>
       </c>
     </row>
     <row r="4">
@@ -56284,28 +56284,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.0608481876929</v>
+        <v>176.5835523537907</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.7928491752429</v>
+        <v>241.6094066468634</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.6750754996399</v>
+        <v>218.5505439774887</v>
       </c>
       <c r="AD4" t="n">
-        <v>154060.8481876929</v>
+        <v>176583.5523537907</v>
       </c>
       <c r="AE4" t="n">
-        <v>210792.8491752429</v>
+        <v>241609.4066468634</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.273526542698631e-06</v>
+        <v>6.485458775893897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.002893518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>190675.0754996399</v>
+        <v>218550.5439774887</v>
       </c>
     </row>
     <row r="5">
@@ -56390,28 +56390,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.0077171381417</v>
+        <v>170.7062982698903</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.4600029422137</v>
+        <v>233.5678883231241</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.5690833632281</v>
+        <v>211.2764968762228</v>
       </c>
       <c r="AD5" t="n">
-        <v>137007.7171381417</v>
+        <v>170706.2982698902</v>
       </c>
       <c r="AE5" t="n">
-        <v>187460.0029422137</v>
+        <v>233567.8883231241</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.388538056889855e-06</v>
+        <v>6.713317760481635e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.832175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>169569.0833632281</v>
+        <v>211276.4968762228</v>
       </c>
     </row>
     <row r="6">
@@ -56496,28 +56496,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.7413717768971</v>
+        <v>167.4399529086457</v>
       </c>
       <c r="AB6" t="n">
-        <v>182.9908451179739</v>
+        <v>229.0987304988844</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.52645568923</v>
+        <v>207.2338692022246</v>
       </c>
       <c r="AD6" t="n">
-        <v>133741.3717768971</v>
+        <v>167439.9529086457</v>
       </c>
       <c r="AE6" t="n">
-        <v>182990.8451179739</v>
+        <v>229098.7304988844</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.453175433467796e-06</v>
+        <v>6.841376303985176e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.742476851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>165526.45568923</v>
+        <v>207233.8692022246</v>
       </c>
     </row>
     <row r="7">
@@ -56602,28 +56602,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.8402589335215</v>
+        <v>164.5388400652701</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.0214145376037</v>
+        <v>225.1292999185142</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.9358619923183</v>
+        <v>203.6432755053129</v>
       </c>
       <c r="AD7" t="n">
-        <v>130840.2589335215</v>
+        <v>164538.8400652701</v>
       </c>
       <c r="AE7" t="n">
-        <v>179021.4145376037</v>
+        <v>225129.2999185142</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.504568373864268e-06</v>
+        <v>6.943195180956468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.673032407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>161935.8619923183</v>
+        <v>203643.2755053129</v>
       </c>
     </row>
     <row r="8">
@@ -56708,28 +56708,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>129.3277356501841</v>
+        <v>163.0263167819327</v>
       </c>
       <c r="AB8" t="n">
-        <v>176.9519134535247</v>
+        <v>223.0597988344351</v>
       </c>
       <c r="AC8" t="n">
-        <v>160.0638711871401</v>
+        <v>201.7712847001347</v>
       </c>
       <c r="AD8" t="n">
-        <v>129327.7356501841</v>
+        <v>163026.3167819327</v>
       </c>
       <c r="AE8" t="n">
-        <v>176951.9134535247</v>
+        <v>223059.7988344351</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.526076432620502e-06</v>
+        <v>6.985806605239609e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>160063.8711871401</v>
+        <v>201771.2847001347</v>
       </c>
     </row>
     <row r="9">
@@ -56814,28 +56814,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.6905513084697</v>
+        <v>150.2985068205881</v>
       </c>
       <c r="AB9" t="n">
-        <v>174.7118456097165</v>
+        <v>205.6450477339862</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.0375922743893</v>
+        <v>186.0185730029503</v>
       </c>
       <c r="AD9" t="n">
-        <v>127690.5513084697</v>
+        <v>150298.5068205881</v>
       </c>
       <c r="AE9" t="n">
-        <v>174711.8456097165</v>
+        <v>205645.0477339862</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.549225895860762e-06</v>
+        <v>7.031669954007514e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.615162037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>158037.5922743893</v>
+        <v>186018.5730029503</v>
       </c>
     </row>
     <row r="10">
@@ -56920,28 +56920,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>125.6224641975538</v>
+        <v>148.2304197096722</v>
       </c>
       <c r="AB10" t="n">
-        <v>171.8821975869987</v>
+        <v>202.8153997112683</v>
       </c>
       <c r="AC10" t="n">
-        <v>155.4780018875228</v>
+        <v>183.4589826160838</v>
       </c>
       <c r="AD10" t="n">
-        <v>125622.4641975538</v>
+        <v>148230.4197096722</v>
       </c>
       <c r="AE10" t="n">
-        <v>171882.1975869987</v>
+        <v>202815.3997112683</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.576054369151432e-06</v>
+        <v>7.08482209903438e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.580439814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>155478.0018875228</v>
+        <v>183458.9826160838</v>
       </c>
     </row>
     <row r="11">
@@ -57026,28 +57026,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>124.4623775909537</v>
+        <v>147.0703331030721</v>
       </c>
       <c r="AB11" t="n">
-        <v>170.2949159124402</v>
+        <v>201.2281180367099</v>
       </c>
       <c r="AC11" t="n">
-        <v>154.0422081482199</v>
+        <v>182.023188876781</v>
       </c>
       <c r="AD11" t="n">
-        <v>124462.3775909537</v>
+        <v>147070.3331030721</v>
       </c>
       <c r="AE11" t="n">
-        <v>170294.9159124402</v>
+        <v>201228.1180367099</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.586242396983332e-06</v>
+        <v>7.10500645790534e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.565972222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>154042.2081482199</v>
+        <v>182023.188876781</v>
       </c>
     </row>
     <row r="12">
@@ -57132,28 +57132,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.9863085983986</v>
+        <v>145.5942641105171</v>
       </c>
       <c r="AB12" t="n">
-        <v>168.2752931972593</v>
+        <v>199.2084953215289</v>
       </c>
       <c r="AC12" t="n">
-        <v>152.2153353904169</v>
+        <v>180.196316118978</v>
       </c>
       <c r="AD12" t="n">
-        <v>122986.3085983986</v>
+        <v>145594.264110517</v>
       </c>
       <c r="AE12" t="n">
-        <v>168275.2931972593</v>
+        <v>199208.495321529</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.599996234556397e-06</v>
+        <v>7.132255342381138e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.548611111111112</v>
       </c>
       <c r="AH12" t="n">
-        <v>152215.3353904169</v>
+        <v>180196.316118978</v>
       </c>
     </row>
     <row r="13">
@@ -57238,28 +57238,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>122.7863428717361</v>
+        <v>145.3942983838545</v>
       </c>
       <c r="AB13" t="n">
-        <v>168.0016912681746</v>
+        <v>198.9348933924442</v>
       </c>
       <c r="AC13" t="n">
-        <v>151.9678456454412</v>
+        <v>179.9488263740023</v>
       </c>
       <c r="AD13" t="n">
-        <v>122786.3428717361</v>
+        <v>145394.2983838545</v>
       </c>
       <c r="AE13" t="n">
-        <v>168001.6912681746</v>
+        <v>198934.8933924442</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.597336027289178e-06</v>
+        <v>7.126984982009275e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.55150462962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>151967.8456454412</v>
+        <v>179948.8263740023</v>
       </c>
     </row>
     <row r="14">
@@ -57344,28 +57344,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>123.1931247428283</v>
+        <v>145.8010802549468</v>
       </c>
       <c r="AB14" t="n">
-        <v>168.5582681701522</v>
+        <v>199.4914702944219</v>
       </c>
       <c r="AC14" t="n">
-        <v>152.4713036290549</v>
+        <v>180.4522843576159</v>
       </c>
       <c r="AD14" t="n">
-        <v>123193.1247428283</v>
+        <v>145801.0802549467</v>
       </c>
       <c r="AE14" t="n">
-        <v>168558.2681701522</v>
+        <v>199491.4702944219</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.596487024969853e-06</v>
+        <v>7.125302952103362e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.554398148148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>152471.3036290549</v>
+        <v>180452.2843576159</v>
       </c>
     </row>
   </sheetData>
